--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/52_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/52_455-55R22.xlsx
@@ -932,49 +932,49 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01738433785291925</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2233194221366907</v>
+        <v>0.3635967039200855</v>
       </c>
       <c r="G2">
-        <v>0.19246916207692</v>
+        <v>0.3023794275454365</v>
       </c>
       <c r="H2">
-        <v>0.07387452227070485</v>
+        <v>0.06704783463493612</v>
       </c>
       <c r="I2">
-        <v>0.04140523068925852</v>
+        <v>0.002617856003331714</v>
       </c>
       <c r="J2">
-        <v>0.03308947044463291</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.002267360502947696</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0495628579059542</v>
+        <v>0.01880532797012491</v>
       </c>
       <c r="M2">
-        <v>0.03959062424067208</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.04008597012615284</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.04401849476941168</v>
+        <v>0.007803449548563829</v>
       </c>
       <c r="P2">
-        <v>0.03345418441878019</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.1085780893547331</v>
+        <v>0.1359113661984662</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09140693741604547</v>
+        <v>0.1018380341790555</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.009493335794176518</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1282,100 +1282,100 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.3395969574460774</v>
+        <v>0.280927468568618</v>
       </c>
       <c r="AT3">
-        <v>0.01914455434852058</v>
+        <v>0.02527335723360415</v>
       </c>
       <c r="AU3">
-        <v>0.1581906418793161</v>
+        <v>0.1362031040499329</v>
       </c>
       <c r="AV3">
-        <v>0.02977535310162164</v>
+        <v>0.03375451506464101</v>
       </c>
       <c r="AW3">
-        <v>0.05800475747463436</v>
+        <v>0.05627568581804687</v>
       </c>
       <c r="AX3">
-        <v>0.02899386817125417</v>
+        <v>0.03313105325420179</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>0.001169811618076724</v>
       </c>
       <c r="AZ3">
-        <v>0.00492368372392702</v>
+        <v>0.01392807160991089</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>5.54746856600992E-05</v>
       </c>
       <c r="BB3">
-        <v>0.07938353596658015</v>
+        <v>0.0733314874408626</v>
       </c>
       <c r="BC3">
-        <v>0.02616381896654044</v>
+        <v>0.0308732648666852</v>
       </c>
       <c r="BD3">
-        <v>0.07507134713126026</v>
+        <v>0.06989126107979875</v>
       </c>
       <c r="BE3">
-        <v>0.04609317543874556</v>
+        <v>0.04677273033840833</v>
       </c>
       <c r="BF3">
-        <v>0.04959940147342668</v>
+        <v>0.04956996665922069</v>
       </c>
       <c r="BG3">
-        <v>0.04464697787519524</v>
+        <v>0.04561896663013068</v>
       </c>
       <c r="BH3">
-        <v>0.005431658180473809</v>
+        <v>0.01433332916770745</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>0.002216498883220949</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>6.766315077505738E-06</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>0.004200360620568632</v>
       </c>
       <c r="BL3">
-        <v>0.01576136931427638</v>
+        <v>0.02257428194176336</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>0.001206623942258751</v>
       </c>
       <c r="BN3">
-        <v>0.01112380002554532</v>
+        <v>0.0188744699141277</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>0.0002945517495724712</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>0.00295016034423638</v>
       </c>
       <c r="BQ3">
-        <v>0</v>
+        <v>3.15874283921251E-05</v>
       </c>
       <c r="BR3">
-        <v>0</v>
+        <v>0.002668717642585394</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>4.410013169601918E-05</v>
       </c>
       <c r="BT3">
-        <v>0.001781839259667544</v>
+        <v>0.01142153570411348</v>
       </c>
       <c r="BU3">
-        <v>0.006313260222937339</v>
+        <v>0.01503666353043505</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>0.001772021764709986</v>
       </c>
       <c r="BW3">
-        <v>0</v>
+        <v>0.002882924853093728</v>
       </c>
       <c r="BX3">
-        <v>0</v>
+        <v>0.002709187148642421</v>
       </c>
     </row>
     <row r="4" spans="1:76">
@@ -1512,100 +1512,100 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.3155427167824175</v>
+        <v>0.2684097885316018</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.000114181103979234</v>
       </c>
       <c r="AU4">
-        <v>0.1640954774579572</v>
+        <v>0.1443839530232052</v>
       </c>
       <c r="AV4">
-        <v>0.04631956497408975</v>
+        <v>0.0479328323970914</v>
       </c>
       <c r="AW4">
-        <v>0.01114612361770224</v>
+        <v>0.01912797948996432</v>
       </c>
       <c r="AX4">
-        <v>0.01272750623225834</v>
+        <v>0.02042303313969496</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>0.004613652506655045</v>
       </c>
       <c r="AZ4">
-        <v>0.02931179978912709</v>
+        <v>0.03400453435346425</v>
       </c>
       <c r="BA4">
-        <v>0.02884118215092436</v>
+        <v>0.03361912788423153</v>
       </c>
       <c r="BB4">
-        <v>0.07821220375413923</v>
+        <v>0.07405091278539642</v>
       </c>
       <c r="BC4">
-        <v>0.04335342547659151</v>
+        <v>0.04550374929823389</v>
       </c>
       <c r="BD4">
-        <v>0.06926368744028955</v>
+        <v>0.06672263650029367</v>
       </c>
       <c r="BE4">
-        <v>0.07622722078568357</v>
+        <v>0.07242533563898695</v>
       </c>
       <c r="BF4">
-        <v>0.001589002542006188</v>
+        <v>0.01130129389466826</v>
       </c>
       <c r="BG4">
-        <v>0.122321518098801</v>
+        <v>0.1101736878831899</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>0.0003494905930891119</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>0.004412808162753427</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>0.001175969646834242</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>0.0004250547324722265</v>
       </c>
       <c r="BL4">
-        <v>0.001048570898012581</v>
+        <v>0.01085871411255758</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>0.004621816352089124</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>0.009837909377843512</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>0.0005428857122339952</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>4.545010505378775E-07</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>0.002095687530047035</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>0.000390025670666349</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.001319718189831889</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>0.0008019553470990021</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>0.004206870137512597</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>0.002750610920657762</v>
       </c>
       <c r="BW4">
-        <v>0</v>
+        <v>8.569448398167464E-05</v>
       </c>
       <c r="BX4">
-        <v>0</v>
+        <v>0.003317636098622948</v>
       </c>
     </row>
     <row r="5" spans="1:76">
@@ -1622,25 +1622,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2263813035354367</v>
+        <v>0.2169405108288327</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1482045003441392</v>
+        <v>0.1432644550902644</v>
       </c>
       <c r="H5">
-        <v>0.09209138609465017</v>
+        <v>0.0903818509884606</v>
       </c>
       <c r="I5">
-        <v>0.06286080416116474</v>
+        <v>0.0628341143723643</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.003085554978197019</v>
+        <v>0.006500209546215168</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1649,28 +1649,28 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.02235187031901588</v>
+        <v>0.02465733627668013</v>
       </c>
       <c r="O5">
-        <v>0.0794060559340027</v>
+        <v>0.07842683295464511</v>
       </c>
       <c r="P5">
-        <v>0.1436371503217784</v>
+        <v>0.138960053770584</v>
       </c>
       <c r="Q5">
-        <v>0.06100795333197822</v>
+        <v>0.06108793474626269</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1400734661762741</v>
+        <v>0.1356015358852165</v>
       </c>
       <c r="T5">
-        <v>2.778095771620976E-05</v>
+        <v>0.003618475835287874</v>
       </c>
       <c r="U5">
-        <v>0.005452666445688386</v>
+        <v>0.008731043109357236</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001225538717454777</v>
+        <v>0.004747277012433282</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001065104913699094</v>
+        <v>0.004596079606229161</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>9.468465080963928E-05</v>
       </c>
       <c r="AG5">
-        <v>0.007024646862368565</v>
+        <v>0.01021252242382682</v>
       </c>
       <c r="AH5">
-        <v>0.006104216906435906</v>
+        <v>0.009345082902530409</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4348501642116165</v>
+        <v>0.3906422407221644</v>
       </c>
       <c r="F6">
-        <v>0.0495597426584307</v>
+        <v>0.05132783837073779</v>
       </c>
       <c r="G6">
-        <v>0.1738651364876227</v>
+        <v>0.1608000911357566</v>
       </c>
       <c r="H6">
-        <v>0.03270118446064158</v>
+        <v>0.03648098187134798</v>
       </c>
       <c r="I6">
-        <v>0.005287878792064837</v>
+        <v>0.01233885710241942</v>
       </c>
       <c r="J6">
-        <v>0.0004212021214449325</v>
+        <v>0.008052912283775466</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1879,22 +1879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.05925397460544547</v>
+        <v>0.05986527490003742</v>
       </c>
       <c r="O6">
-        <v>0.02737040855438408</v>
+        <v>0.03178631795157166</v>
       </c>
       <c r="P6">
-        <v>0.0693360221987884</v>
+        <v>0.06874424972589242</v>
       </c>
       <c r="Q6">
-        <v>0.01802344190027919</v>
+        <v>0.02355470816679919</v>
       </c>
       <c r="R6">
-        <v>0.0223131932660515</v>
+        <v>0.02733257114882071</v>
       </c>
       <c r="S6">
-        <v>0.09810317458317845</v>
+        <v>0.09407866909534536</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1909,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.003315655935680905</v>
+        <v>0.0106019760838879</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.004922616578908291</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.0002722724031428245</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1927,16 +1927,16 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.005598820224370795</v>
+        <v>0.01261269444787918</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.003839487923074789</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.00128954802543053</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.001456692063008315</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2079,52 +2079,52 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03798672320485737</v>
+        <v>0.0229941773209142</v>
       </c>
       <c r="E7">
-        <v>0.2564817517215607</v>
+        <v>0.3581101889972687</v>
       </c>
       <c r="F7">
-        <v>0.1916030079245673</v>
+        <v>0.2586026349287863</v>
       </c>
       <c r="G7">
-        <v>0.07485590702821093</v>
+        <v>0.07954216342623682</v>
       </c>
       <c r="H7">
-        <v>0.02341159594086372</v>
+        <v>0.0006396251302154804</v>
       </c>
       <c r="I7">
-        <v>0.07740417365121881</v>
+        <v>0.08345055874849053</v>
       </c>
       <c r="J7">
-        <v>0.01556966416760479</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.005270448802797199</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.06669078432712036</v>
+        <v>0.06701893407400304</v>
       </c>
       <c r="N7">
-        <v>0.09463999991738938</v>
+        <v>0.109885949043076</v>
       </c>
       <c r="O7">
-        <v>0.022994561522343</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.01345831808105539</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.03206996406217081</v>
+        <v>0.01391936797899296</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.02679988390896859</v>
+        <v>0.005836400352016371</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2136,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.002837831688013832</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.01982203421969032</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.01556966416760479</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.02253368566396307</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -2309,55 +2309,55 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09169593942199465</v>
+        <v>0.1006044882567974</v>
       </c>
       <c r="E8">
-        <v>0.134775733573318</v>
+        <v>0.1561250510154857</v>
       </c>
       <c r="F8">
-        <v>0.07325845477546805</v>
+        <v>0.07684254733771836</v>
       </c>
       <c r="G8">
-        <v>0.08132481534856745</v>
+        <v>0.08723834627909323</v>
       </c>
       <c r="H8">
-        <v>0.05592412526307187</v>
+        <v>0.05450233544645027</v>
       </c>
       <c r="I8">
-        <v>0.1538522322800575</v>
+        <v>0.1807105432289167</v>
       </c>
       <c r="J8">
-        <v>0.007814876265520397</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.008938721267370098</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>5.053727545067816E-05</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.04105869323129365</v>
+        <v>0.03534399988996514</v>
       </c>
       <c r="N8">
-        <v>0.08081043239052002</v>
+        <v>0.08657541759368782</v>
       </c>
       <c r="O8">
-        <v>0.09850643187527852</v>
+        <v>0.1093817440705535</v>
       </c>
       <c r="P8">
-        <v>0.01363439916637404</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.02627926582519578</v>
+        <v>0.01629650574560121</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.04972984191184599</v>
+        <v>0.04651924025479718</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0.01379657852413438</v>
+        <v>0.0002090142116062177</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.008423543993188828</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.004774516158384095</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.05215967162923778</v>
+        <v>0.049650766669327</v>
       </c>
       <c r="AG8">
-        <v>0.003191189823728412</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -2542,55 +2542,55 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2033193928882193</v>
+        <v>0.2389783172627683</v>
       </c>
       <c r="F9">
-        <v>0.01905287266008592</v>
+        <v>0.008440651490118498</v>
       </c>
       <c r="G9">
-        <v>0.1311404570297425</v>
+        <v>0.1486745367921448</v>
       </c>
       <c r="H9">
-        <v>0.04758086731548734</v>
+        <v>0.04413230773287172</v>
       </c>
       <c r="I9">
-        <v>0.04352842696132483</v>
+        <v>0.03906225952891765</v>
       </c>
       <c r="J9">
-        <v>0.1108716957743319</v>
+        <v>0.1233160891363233</v>
       </c>
       <c r="K9">
-        <v>0.01174188919954381</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.01394441066912963</v>
+        <v>0.00204940417277995</v>
       </c>
       <c r="N9">
-        <v>0.04707607545721552</v>
+        <v>0.04350075764681732</v>
       </c>
       <c r="O9">
-        <v>0.1323431388192723</v>
+        <v>0.150179223873022</v>
       </c>
       <c r="P9">
-        <v>0.04703084558980161</v>
+        <v>0.04344417011239219</v>
       </c>
       <c r="Q9">
-        <v>0.0123063417913455</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.00032985366177757</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.1003478132973343</v>
+        <v>0.1101495556927603</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.04530243005185818</v>
+        <v>0.041281732339598</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.00404282943820922</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2623,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.01333185576718629</v>
+        <v>0.001283030677058773</v>
       </c>
       <c r="AG9">
-        <v>0.01670880362813434</v>
+        <v>0.005507963542427147</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2772,25 +2772,25 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1324008690935094</v>
+        <v>0.1502149256278751</v>
       </c>
       <c r="F10">
-        <v>0.1837495514037286</v>
+        <v>0.215962750552791</v>
       </c>
       <c r="G10">
-        <v>0.1502806745037706</v>
+        <v>0.1731085669622986</v>
       </c>
       <c r="H10">
-        <v>0.06693905373471463</v>
+        <v>0.0663963779682665</v>
       </c>
       <c r="I10">
-        <v>0.03350932568329926</v>
+        <v>0.02359232130458489</v>
       </c>
       <c r="J10">
-        <v>0.111155471006372</v>
+        <v>0.1230119157150918</v>
       </c>
       <c r="K10">
-        <v>0.01220436388510403</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2799,25 +2799,25 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.0674738463385724</v>
+        <v>0.06708113654254023</v>
       </c>
       <c r="O10">
-        <v>0.0993225677428668</v>
+        <v>0.1078608423648108</v>
       </c>
       <c r="P10">
-        <v>0.05121640358127961</v>
+        <v>0.04626479906233576</v>
       </c>
       <c r="Q10">
-        <v>0.01508385513711458</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.01327328587158571</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.03346605788183035</v>
+        <v>0.02353692039247039</v>
       </c>
       <c r="T10">
-        <v>0.01740297385244658</v>
+        <v>0.002969443506934922</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.00498230459870783</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.007539395685097636</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -3002,22 +3002,22 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3605334916717187</v>
+        <v>0.445885879486343</v>
       </c>
       <c r="F11">
-        <v>0.09093715657706591</v>
+        <v>0.09732721967092051</v>
       </c>
       <c r="G11">
-        <v>0.09315624376410192</v>
+        <v>0.1001962573959893</v>
       </c>
       <c r="H11">
-        <v>0.01281000142957797</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1156225071200828</v>
+        <v>0.1292426858041192</v>
       </c>
       <c r="J11">
-        <v>0.02672150035144252</v>
+        <v>0.01430337936050701</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.02505419450291945</v>
+        <v>0.01214773473032471</v>
       </c>
       <c r="N11">
-        <v>0.1282407596199601</v>
+        <v>0.1455567101732772</v>
       </c>
       <c r="O11">
-        <v>0.03600090621961476</v>
+        <v>0.02630063916063711</v>
       </c>
       <c r="P11">
-        <v>0.005807272287521573</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.0237098024221444</v>
+        <v>0.0104095823857207</v>
       </c>
       <c r="R11">
-        <v>0.01565840222872427</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0300679020694307</v>
+        <v>0.01862991183216123</v>
       </c>
       <c r="T11">
-        <v>0.00422218407341922</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.005758309106025092</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.01518963721844928</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.01050972933780125</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -3475,64 +3475,64 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01738433785291925</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2407037599896099</v>
+        <v>0.3635967039200855</v>
       </c>
       <c r="G2">
-        <v>0.43317292206653</v>
+        <v>0.6659761314655219</v>
       </c>
       <c r="H2">
-        <v>0.5070474443372348</v>
+        <v>0.7330239661004581</v>
       </c>
       <c r="I2">
-        <v>0.5484526750264933</v>
+        <v>0.7356418221037898</v>
       </c>
       <c r="J2">
-        <v>0.5815421454711263</v>
+        <v>0.7356418221037898</v>
       </c>
       <c r="K2">
-        <v>0.583809505974074</v>
+        <v>0.7356418221037898</v>
       </c>
       <c r="L2">
-        <v>0.6333723638800282</v>
+        <v>0.7544471500739147</v>
       </c>
       <c r="M2">
-        <v>0.6729629881207002</v>
+        <v>0.7544471500739147</v>
       </c>
       <c r="N2">
-        <v>0.7130489582468531</v>
+        <v>0.7544471500739147</v>
       </c>
       <c r="O2">
-        <v>0.7570674530162648</v>
+        <v>0.7622505996224785</v>
       </c>
       <c r="P2">
-        <v>0.790521637435045</v>
+        <v>0.7622505996224785</v>
       </c>
       <c r="Q2">
-        <v>0.8990997267897781</v>
+        <v>0.8981619658209448</v>
       </c>
       <c r="R2">
-        <v>0.8990997267897781</v>
+        <v>0.8981619658209448</v>
       </c>
       <c r="S2">
-        <v>0.9905066642058236</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.9905066642058236</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.9905066642058236</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.9905066642058236</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9905066642058236</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.9905066642058236</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -3825,100 +3825,100 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.3395969574460774</v>
+        <v>0.280927468568618</v>
       </c>
       <c r="AT3">
-        <v>0.358741511794598</v>
+        <v>0.3062008258022221</v>
       </c>
       <c r="AU3">
-        <v>0.5169321536739141</v>
+        <v>0.442403929852155</v>
       </c>
       <c r="AV3">
-        <v>0.5467075067755357</v>
+        <v>0.476158444916796</v>
       </c>
       <c r="AW3">
-        <v>0.6047122642501701</v>
+        <v>0.5324341307348428</v>
       </c>
       <c r="AX3">
-        <v>0.6337061324214243</v>
+        <v>0.5655651839890445</v>
       </c>
       <c r="AY3">
-        <v>0.6337061324214243</v>
+        <v>0.5667349956071213</v>
       </c>
       <c r="AZ3">
-        <v>0.6386298161453513</v>
+        <v>0.5806630672170321</v>
       </c>
       <c r="BA3">
-        <v>0.6386298161453513</v>
+        <v>0.5807185419026922</v>
       </c>
       <c r="BB3">
-        <v>0.7180133521119314</v>
+        <v>0.6540500293435548</v>
       </c>
       <c r="BC3">
-        <v>0.7441771710784718</v>
+        <v>0.68492329421024</v>
       </c>
       <c r="BD3">
-        <v>0.8192485182097321</v>
+        <v>0.7548145552900387</v>
       </c>
       <c r="BE3">
-        <v>0.8653416936484777</v>
+        <v>0.8015872856284471</v>
       </c>
       <c r="BF3">
-        <v>0.9149410951219044</v>
+        <v>0.8511572522876677</v>
       </c>
       <c r="BG3">
-        <v>0.9595880729970996</v>
+        <v>0.8967762189177984</v>
       </c>
       <c r="BH3">
-        <v>0.9650197311775734</v>
+        <v>0.9111095480855058</v>
       </c>
       <c r="BI3">
-        <v>0.9650197311775734</v>
+        <v>0.9133260469687268</v>
       </c>
       <c r="BJ3">
-        <v>0.9650197311775734</v>
+        <v>0.9133328132838042</v>
       </c>
       <c r="BK3">
-        <v>0.9650197311775734</v>
+        <v>0.9175331739043728</v>
       </c>
       <c r="BL3">
-        <v>0.9807811004918499</v>
+        <v>0.9401074558461362</v>
       </c>
       <c r="BM3">
-        <v>0.9807811004918499</v>
+        <v>0.941314079788395</v>
       </c>
       <c r="BN3">
-        <v>0.9919049005173952</v>
+        <v>0.9601885497025227</v>
       </c>
       <c r="BO3">
-        <v>0.9919049005173952</v>
+        <v>0.9604831014520951</v>
       </c>
       <c r="BP3">
-        <v>0.9919049005173952</v>
+        <v>0.9634332617963315</v>
       </c>
       <c r="BQ3">
-        <v>0.9919049005173952</v>
+        <v>0.9634648492247236</v>
       </c>
       <c r="BR3">
-        <v>0.9919049005173952</v>
+        <v>0.966133566867309</v>
       </c>
       <c r="BS3">
-        <v>0.9919049005173952</v>
+        <v>0.966177666999005</v>
       </c>
       <c r="BT3">
-        <v>0.9936867397770628</v>
+        <v>0.9775992027031185</v>
       </c>
       <c r="BU3">
-        <v>1</v>
+        <v>0.9926358662335536</v>
       </c>
       <c r="BV3">
-        <v>1</v>
+        <v>0.9944078879982636</v>
       </c>
       <c r="BW3">
-        <v>1</v>
+        <v>0.9972908128513573</v>
       </c>
       <c r="BX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:76">
@@ -4055,97 +4055,97 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.3155427167824175</v>
+        <v>0.2684097885316018</v>
       </c>
       <c r="AT4">
-        <v>0.3155427167824175</v>
+        <v>0.2685239696355811</v>
       </c>
       <c r="AU4">
-        <v>0.4796381942403747</v>
+        <v>0.4129079226587863</v>
       </c>
       <c r="AV4">
-        <v>0.5259577592144644</v>
+        <v>0.4608407550558777</v>
       </c>
       <c r="AW4">
-        <v>0.5371038828321667</v>
+        <v>0.479968734545842</v>
       </c>
       <c r="AX4">
-        <v>0.5498313890644251</v>
+        <v>0.5003917676855369</v>
       </c>
       <c r="AY4">
-        <v>0.5498313890644251</v>
+        <v>0.505005420192192</v>
       </c>
       <c r="AZ4">
-        <v>0.5791431888535522</v>
+        <v>0.5390099545456563</v>
       </c>
       <c r="BA4">
-        <v>0.6079843710044766</v>
+        <v>0.5726290824298877</v>
       </c>
       <c r="BB4">
-        <v>0.6861965747586158</v>
+        <v>0.6466799952152842</v>
       </c>
       <c r="BC4">
-        <v>0.7295500002352073</v>
+        <v>0.6921837445135181</v>
       </c>
       <c r="BD4">
-        <v>0.7988136876754969</v>
+        <v>0.7589063810138117</v>
       </c>
       <c r="BE4">
-        <v>0.8750409084611804</v>
+        <v>0.8313317166527987</v>
       </c>
       <c r="BF4">
-        <v>0.8766299110031867</v>
+        <v>0.842633010547467</v>
       </c>
       <c r="BG4">
-        <v>0.9989514291019876</v>
+        <v>0.9528066984306569</v>
       </c>
       <c r="BH4">
-        <v>0.9989514291019876</v>
+        <v>0.953156189023746</v>
       </c>
       <c r="BI4">
-        <v>0.9989514291019876</v>
+        <v>0.9575689971864995</v>
       </c>
       <c r="BJ4">
-        <v>0.9989514291019876</v>
+        <v>0.9587449668333337</v>
       </c>
       <c r="BK4">
-        <v>0.9989514291019876</v>
+        <v>0.9591700215658059</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>0.9700287356783635</v>
       </c>
       <c r="BM4">
-        <v>1</v>
+        <v>0.9746505520304526</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>0.984488461408296</v>
       </c>
       <c r="BO4">
-        <v>1</v>
+        <v>0.9850313471205301</v>
       </c>
       <c r="BP4">
-        <v>1</v>
+        <v>0.9850318016215807</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
+        <v>0.9871274891516277</v>
       </c>
       <c r="BR4">
-        <v>1</v>
+        <v>0.9875175148222941</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>0.988837233012126</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0.989639188359225</v>
       </c>
       <c r="BU4">
-        <v>1</v>
+        <v>0.9938460584967377</v>
       </c>
       <c r="BV4">
-        <v>1</v>
+        <v>0.9965966694173954</v>
       </c>
       <c r="BW4">
-        <v>1</v>
+        <v>0.9966823639013771</v>
       </c>
       <c r="BX4">
         <v>1</v>
@@ -4165,91 +4165,91 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2263813035354367</v>
+        <v>0.2169405108288327</v>
       </c>
       <c r="F5">
-        <v>0.2263813035354367</v>
+        <v>0.2169405108288327</v>
       </c>
       <c r="G5">
-        <v>0.3745858038795759</v>
+        <v>0.360204965919097</v>
       </c>
       <c r="H5">
-        <v>0.4666771899742261</v>
+        <v>0.4505868169075576</v>
       </c>
       <c r="I5">
-        <v>0.5295379941353908</v>
+        <v>0.5134209312799219</v>
       </c>
       <c r="J5">
-        <v>0.5295379941353908</v>
+        <v>0.5134209312799219</v>
       </c>
       <c r="K5">
-        <v>0.5326235491135879</v>
+        <v>0.5199211408261372</v>
       </c>
       <c r="L5">
-        <v>0.5326235491135879</v>
+        <v>0.5199211408261372</v>
       </c>
       <c r="M5">
-        <v>0.5326235491135879</v>
+        <v>0.5199211408261372</v>
       </c>
       <c r="N5">
-        <v>0.5549754194326038</v>
+        <v>0.5445784771028173</v>
       </c>
       <c r="O5">
-        <v>0.6343814753666065</v>
+        <v>0.6230053100574624</v>
       </c>
       <c r="P5">
-        <v>0.7780186256883849</v>
+        <v>0.7619653638280464</v>
       </c>
       <c r="Q5">
-        <v>0.839026579020363</v>
+        <v>0.8230532985743091</v>
       </c>
       <c r="R5">
-        <v>0.839026579020363</v>
+        <v>0.8230532985743091</v>
       </c>
       <c r="S5">
-        <v>0.9791000451966371</v>
+        <v>0.9586548344595256</v>
       </c>
       <c r="T5">
-        <v>0.9791278261543532</v>
+        <v>0.9622733102948134</v>
       </c>
       <c r="U5">
-        <v>0.9845804926000417</v>
+        <v>0.9710043534041707</v>
       </c>
       <c r="V5">
-        <v>0.9845804926000417</v>
+        <v>0.9710043534041707</v>
       </c>
       <c r="W5">
-        <v>0.9845804926000417</v>
+        <v>0.9710043534041707</v>
       </c>
       <c r="X5">
-        <v>0.9858060313174964</v>
+        <v>0.975751630416604</v>
       </c>
       <c r="Y5">
-        <v>0.9858060313174964</v>
+        <v>0.975751630416604</v>
       </c>
       <c r="Z5">
-        <v>0.9868711362311955</v>
+        <v>0.9803477100228332</v>
       </c>
       <c r="AA5">
-        <v>0.9868711362311955</v>
+        <v>0.9803477100228332</v>
       </c>
       <c r="AB5">
-        <v>0.9868711362311955</v>
+        <v>0.9803477100228332</v>
       </c>
       <c r="AC5">
-        <v>0.9868711362311955</v>
+        <v>0.9803477100228332</v>
       </c>
       <c r="AD5">
-        <v>0.9868711362311955</v>
+        <v>0.9803477100228332</v>
       </c>
       <c r="AE5">
-        <v>0.9868711362311955</v>
+        <v>0.9803477100228332</v>
       </c>
       <c r="AF5">
-        <v>0.9868711362311955</v>
+        <v>0.9804423946736428</v>
       </c>
       <c r="AG5">
-        <v>0.9938957830935641</v>
+        <v>0.9906549170974697</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -4395,97 +4395,97 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4348501642116165</v>
+        <v>0.3906422407221644</v>
       </c>
       <c r="F6">
-        <v>0.4844099068700472</v>
+        <v>0.4419700790929021</v>
       </c>
       <c r="G6">
-        <v>0.6582750433576698</v>
+        <v>0.6027701702286588</v>
       </c>
       <c r="H6">
-        <v>0.6909762278183115</v>
+        <v>0.6392511521000067</v>
       </c>
       <c r="I6">
-        <v>0.6962641066103763</v>
+        <v>0.6515900092024262</v>
       </c>
       <c r="J6">
-        <v>0.6966853087318212</v>
+        <v>0.6596429214862016</v>
       </c>
       <c r="K6">
-        <v>0.6966853087318212</v>
+        <v>0.6596429214862016</v>
       </c>
       <c r="L6">
-        <v>0.6966853087318212</v>
+        <v>0.6596429214862016</v>
       </c>
       <c r="M6">
-        <v>0.6966853087318212</v>
+        <v>0.6596429214862016</v>
       </c>
       <c r="N6">
-        <v>0.7559392833372667</v>
+        <v>0.7195081963862391</v>
       </c>
       <c r="O6">
-        <v>0.7833096918916508</v>
+        <v>0.7512945143378107</v>
       </c>
       <c r="P6">
-        <v>0.8526457140904392</v>
+        <v>0.8200387640637031</v>
       </c>
       <c r="Q6">
-        <v>0.8706691559907184</v>
+        <v>0.8435934722305023</v>
       </c>
       <c r="R6">
-        <v>0.8929823492567699</v>
+        <v>0.870926043379323</v>
       </c>
       <c r="S6">
-        <v>0.9910855238399483</v>
+        <v>0.9650047124746683</v>
       </c>
       <c r="T6">
-        <v>0.9910855238399483</v>
+        <v>0.9650047124746683</v>
       </c>
       <c r="U6">
-        <v>0.9910855238399483</v>
+        <v>0.9650047124746683</v>
       </c>
       <c r="V6">
-        <v>0.9910855238399483</v>
+        <v>0.9650047124746683</v>
       </c>
       <c r="W6">
-        <v>0.9910855238399483</v>
+        <v>0.9650047124746683</v>
       </c>
       <c r="X6">
-        <v>0.9944011797756293</v>
+        <v>0.9756066885585563</v>
       </c>
       <c r="Y6">
-        <v>0.9944011797756293</v>
+        <v>0.9805293051374645</v>
       </c>
       <c r="Z6">
-        <v>0.9944011797756293</v>
+        <v>0.9808015775406074</v>
       </c>
       <c r="AA6">
-        <v>0.9944011797756293</v>
+        <v>0.9808015775406074</v>
       </c>
       <c r="AB6">
-        <v>0.9944011797756293</v>
+        <v>0.9808015775406074</v>
       </c>
       <c r="AC6">
-        <v>0.9944011797756293</v>
+        <v>0.9808015775406074</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9934142719884865</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9972537599115613</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9972537599115613</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9985433079369919</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9985433079369919</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9985433079369919</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -4622,85 +4622,85 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03798672320485737</v>
+        <v>0.0229941773209142</v>
       </c>
       <c r="E7">
-        <v>0.2944684749264181</v>
+        <v>0.3811043663181828</v>
       </c>
       <c r="F7">
-        <v>0.4860714828509854</v>
+        <v>0.6397070012469692</v>
       </c>
       <c r="G7">
-        <v>0.5609273898791963</v>
+        <v>0.719249164673206</v>
       </c>
       <c r="H7">
-        <v>0.5843389858200601</v>
+        <v>0.7198887898034214</v>
       </c>
       <c r="I7">
-        <v>0.6617431594712788</v>
+        <v>0.8033393485519119</v>
       </c>
       <c r="J7">
-        <v>0.6773128236388836</v>
+        <v>0.8033393485519119</v>
       </c>
       <c r="K7">
-        <v>0.6773128236388836</v>
+        <v>0.8033393485519119</v>
       </c>
       <c r="L7">
-        <v>0.6825832724416807</v>
+        <v>0.8033393485519119</v>
       </c>
       <c r="M7">
-        <v>0.7492740567688011</v>
+        <v>0.870358282625915</v>
       </c>
       <c r="N7">
-        <v>0.8439140566861905</v>
+        <v>0.9802442316689909</v>
       </c>
       <c r="O7">
-        <v>0.8669086182085335</v>
+        <v>0.9802442316689909</v>
       </c>
       <c r="P7">
-        <v>0.8803669362895888</v>
+        <v>0.9802442316689909</v>
       </c>
       <c r="Q7">
-        <v>0.9124369003517596</v>
+        <v>0.9941635996479838</v>
       </c>
       <c r="R7">
-        <v>0.9124369003517596</v>
+        <v>0.9941635996479838</v>
       </c>
       <c r="S7">
-        <v>0.9392367842607282</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.9392367842607282</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.9392367842607282</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.9392367842607282</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9420746159487421</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.9420746159487421</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.9618966501684324</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9618966501684324</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9618966501684324</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9618966501684324</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9618966501684324</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9774663143360371</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <v>1</v>
@@ -4852,223 +4852,223 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09169593942199465</v>
+        <v>0.1006044882567974</v>
       </c>
       <c r="E8">
-        <v>0.2264716729953126</v>
+        <v>0.2567295392722831</v>
       </c>
       <c r="F8">
-        <v>0.2997301277707807</v>
+        <v>0.3335720866100015</v>
       </c>
       <c r="G8">
-        <v>0.3810549431193481</v>
+        <v>0.4208104328890947</v>
       </c>
       <c r="H8">
-        <v>0.43697906838242</v>
+        <v>0.475312768335545</v>
       </c>
       <c r="I8">
-        <v>0.5908313006624775</v>
+        <v>0.6560233115644617</v>
       </c>
       <c r="J8">
-        <v>0.5986461769279978</v>
+        <v>0.6560233115644617</v>
       </c>
       <c r="K8">
-        <v>0.6075848981953679</v>
+        <v>0.6560233115644617</v>
       </c>
       <c r="L8">
-        <v>0.6076354354708186</v>
+        <v>0.6560233115644617</v>
       </c>
       <c r="M8">
-        <v>0.6486941287021122</v>
+        <v>0.6913673114544269</v>
       </c>
       <c r="N8">
-        <v>0.7295045610926322</v>
+        <v>0.7779427290481147</v>
       </c>
       <c r="O8">
-        <v>0.8280109929679107</v>
+        <v>0.8873244731186682</v>
       </c>
       <c r="P8">
-        <v>0.8416453921342847</v>
+        <v>0.8873244731186682</v>
       </c>
       <c r="Q8">
-        <v>0.8416453921342847</v>
+        <v>0.8873244731186682</v>
       </c>
       <c r="R8">
-        <v>0.8679246579594805</v>
+        <v>0.9036209788642694</v>
       </c>
       <c r="S8">
-        <v>0.8679246579594805</v>
+        <v>0.9036209788642694</v>
       </c>
       <c r="T8">
-        <v>0.9176544998713265</v>
+        <v>0.9501402191190665</v>
       </c>
       <c r="U8">
-        <v>0.9176544998713265</v>
+        <v>0.9501402191190665</v>
       </c>
       <c r="V8">
-        <v>0.9176544998713265</v>
+        <v>0.9501402191190665</v>
       </c>
       <c r="W8">
-        <v>0.9176544998713265</v>
+        <v>0.9501402191190665</v>
       </c>
       <c r="X8">
-        <v>0.9314510783954609</v>
+        <v>0.9503492333306728</v>
       </c>
       <c r="Y8">
-        <v>0.9314510783954609</v>
+        <v>0.9503492333306728</v>
       </c>
       <c r="Z8">
-        <v>0.9314510783954609</v>
+        <v>0.9503492333306728</v>
       </c>
       <c r="AA8">
-        <v>0.9314510783954609</v>
+        <v>0.9503492333306728</v>
       </c>
       <c r="AB8">
-        <v>0.9398746223886497</v>
+        <v>0.9503492333306728</v>
       </c>
       <c r="AC8">
-        <v>0.9398746223886497</v>
+        <v>0.9503492333306728</v>
       </c>
       <c r="AD8">
-        <v>0.9398746223886497</v>
+        <v>0.9503492333306728</v>
       </c>
       <c r="AE8">
-        <v>0.9446491385470338</v>
+        <v>0.9503492333306728</v>
       </c>
       <c r="AF8">
-        <v>0.9968088101762715</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:76">
@@ -5085,88 +5085,88 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2033193928882193</v>
+        <v>0.2389783172627683</v>
       </c>
       <c r="F9">
-        <v>0.2223722655483052</v>
+        <v>0.2474189687528868</v>
       </c>
       <c r="G9">
-        <v>0.3535127225780478</v>
+        <v>0.3960935055450316</v>
       </c>
       <c r="H9">
-        <v>0.4010935898935351</v>
+        <v>0.4402258132779033</v>
       </c>
       <c r="I9">
-        <v>0.4446220168548599</v>
+        <v>0.479288072806821</v>
       </c>
       <c r="J9">
-        <v>0.5554937126291918</v>
+        <v>0.6026041619431443</v>
       </c>
       <c r="K9">
-        <v>0.5672356018287356</v>
+        <v>0.6026041619431443</v>
       </c>
       <c r="L9">
-        <v>0.5672356018287356</v>
+        <v>0.6026041619431443</v>
       </c>
       <c r="M9">
-        <v>0.5811800124978652</v>
+        <v>0.6046535661159242</v>
       </c>
       <c r="N9">
-        <v>0.6282560879550807</v>
+        <v>0.6481543237627416</v>
       </c>
       <c r="O9">
-        <v>0.760599226774353</v>
+        <v>0.7983335476357636</v>
       </c>
       <c r="P9">
-        <v>0.8076300723641546</v>
+        <v>0.8417777177481558</v>
       </c>
       <c r="Q9">
-        <v>0.8199364141555001</v>
+        <v>0.8417777177481558</v>
       </c>
       <c r="R9">
-        <v>0.8202662678172777</v>
+        <v>0.8417777177481558</v>
       </c>
       <c r="S9">
-        <v>0.9206140811146121</v>
+        <v>0.9519272734409161</v>
       </c>
       <c r="T9">
-        <v>0.9206140811146121</v>
+        <v>0.9519272734409161</v>
       </c>
       <c r="U9">
-        <v>0.9659165111664703</v>
+        <v>0.9932090057805141</v>
       </c>
       <c r="V9">
-        <v>0.9659165111664703</v>
+        <v>0.9932090057805141</v>
       </c>
       <c r="W9">
-        <v>0.9659165111664703</v>
+        <v>0.9932090057805141</v>
       </c>
       <c r="X9">
-        <v>0.9659165111664703</v>
+        <v>0.9932090057805141</v>
       </c>
       <c r="Y9">
-        <v>0.9699593406046795</v>
+        <v>0.9932090057805141</v>
       </c>
       <c r="Z9">
-        <v>0.9699593406046795</v>
+        <v>0.9932090057805141</v>
       </c>
       <c r="AA9">
-        <v>0.9699593406046795</v>
+        <v>0.9932090057805141</v>
       </c>
       <c r="AB9">
-        <v>0.9699593406046795</v>
+        <v>0.9932090057805141</v>
       </c>
       <c r="AC9">
-        <v>0.9699593406046795</v>
+        <v>0.9932090057805141</v>
       </c>
       <c r="AD9">
-        <v>0.9699593406046795</v>
+        <v>0.9932090057805141</v>
       </c>
       <c r="AE9">
-        <v>0.9699593406046795</v>
+        <v>0.9932090057805141</v>
       </c>
       <c r="AF9">
-        <v>0.9832911963718658</v>
+        <v>0.9944920364575729</v>
       </c>
       <c r="AG9">
         <v>1</v>
@@ -5315,85 +5315,85 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1324008690935094</v>
+        <v>0.1502149256278751</v>
       </c>
       <c r="F10">
-        <v>0.316150420497238</v>
+        <v>0.3661776761806662</v>
       </c>
       <c r="G10">
-        <v>0.4664310950010085</v>
+        <v>0.5392862431429648</v>
       </c>
       <c r="H10">
-        <v>0.5333701487357232</v>
+        <v>0.6056826211112313</v>
       </c>
       <c r="I10">
-        <v>0.5668794744190224</v>
+        <v>0.6292749424158162</v>
       </c>
       <c r="J10">
-        <v>0.6780349454253944</v>
+        <v>0.7522868581309079</v>
       </c>
       <c r="K10">
-        <v>0.6902393093104985</v>
+        <v>0.7522868581309079</v>
       </c>
       <c r="L10">
-        <v>0.6902393093104985</v>
+        <v>0.7522868581309079</v>
       </c>
       <c r="M10">
-        <v>0.6902393093104985</v>
+        <v>0.7522868581309079</v>
       </c>
       <c r="N10">
-        <v>0.7577131556490708</v>
+        <v>0.8193679946734481</v>
       </c>
       <c r="O10">
-        <v>0.8570357233919377</v>
+        <v>0.927228837038259</v>
       </c>
       <c r="P10">
-        <v>0.9082521269732173</v>
+        <v>0.9734936361005947</v>
       </c>
       <c r="Q10">
-        <v>0.9233359821103319</v>
+        <v>0.9734936361005947</v>
       </c>
       <c r="R10">
-        <v>0.9366092679819176</v>
+        <v>0.9734936361005947</v>
       </c>
       <c r="S10">
-        <v>0.9700753258637479</v>
+        <v>0.997030556493065</v>
       </c>
       <c r="T10">
-        <v>0.9874782997161945</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.9874782997161945</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.9874782997161945</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.9874782997161945</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.9874782997161945</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.9924606043149024</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.9924606043149024</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.9924606043149024</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9924606043149024</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9924606043149024</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9924606043149024</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9924606043149024</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -5545,85 +5545,85 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3605334916717187</v>
+        <v>0.445885879486343</v>
       </c>
       <c r="F11">
-        <v>0.4514706482487846</v>
+        <v>0.5432130991572635</v>
       </c>
       <c r="G11">
-        <v>0.5446268920128865</v>
+        <v>0.6434093565532527</v>
       </c>
       <c r="H11">
-        <v>0.5574368934424645</v>
+        <v>0.6434093565532527</v>
       </c>
       <c r="I11">
-        <v>0.6730594005625473</v>
+        <v>0.7726520423573719</v>
       </c>
       <c r="J11">
-        <v>0.6997809009139898</v>
+        <v>0.7869554217178789</v>
       </c>
       <c r="K11">
-        <v>0.6997809009139898</v>
+        <v>0.7869554217178789</v>
       </c>
       <c r="L11">
-        <v>0.6997809009139898</v>
+        <v>0.7869554217178789</v>
       </c>
       <c r="M11">
-        <v>0.7248350954169093</v>
+        <v>0.7991031564482036</v>
       </c>
       <c r="N11">
-        <v>0.8530758550368694</v>
+        <v>0.9446598666214808</v>
       </c>
       <c r="O11">
-        <v>0.8890767612564842</v>
+        <v>0.9709605057821179</v>
       </c>
       <c r="P11">
-        <v>0.8948840335440057</v>
+        <v>0.9709605057821179</v>
       </c>
       <c r="Q11">
-        <v>0.9185938359661501</v>
+        <v>0.9813700881678386</v>
       </c>
       <c r="R11">
-        <v>0.9342522381948744</v>
+        <v>0.9813700881678386</v>
       </c>
       <c r="S11">
-        <v>0.964320140264305</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="T11">
-        <v>0.9685423243377242</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="U11">
-        <v>0.9685423243377242</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V11">
-        <v>0.9685423243377242</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W11">
-        <v>0.9685423243377242</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X11">
-        <v>0.9743006334437493</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y11">
-        <v>0.9743006334437493</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z11">
-        <v>0.9743006334437493</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA11">
-        <v>0.9743006334437493</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB11">
-        <v>0.9743006334437493</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC11">
-        <v>0.9743006334437493</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD11">
-        <v>0.9743006334437493</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE11">
-        <v>0.9894902706621985</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF11">
         <v>0.9999999999999998</v>
@@ -5826,16 +5826,16 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5070474443372348</v>
+        <v>0.6659761314655219</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -5867,16 +5867,16 @@
         <v>42</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5169321536739141</v>
+        <v>0.5324341307348428</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -5908,16 +5908,16 @@
         <v>42</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5259577592144644</v>
+        <v>0.5003917676855369</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5295379941353908</v>
+        <v>0.5134209312799219</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6582750433576698</v>
+        <v>0.6027701702286588</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -6031,16 +6031,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5609273898791963</v>
+        <v>0.6397070012469692</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>52</v>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5908313006624775</v>
+        <v>0.6560233115644617</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5554937126291918</v>
+        <v>0.6026041619431443</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -6154,16 +6154,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5333701487357232</v>
+        <v>0.5392862431429648</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>52</v>
@@ -6195,16 +6195,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5446268920128865</v>
+        <v>0.5432130991572635</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -6290,16 +6290,16 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7130489582468531</v>
+        <v>0.7330239661004581</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -6331,16 +6331,16 @@
         <v>42</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7180133521119314</v>
+        <v>0.7548145552900387</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -6372,16 +6372,16 @@
         <v>42</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7295500002352073</v>
+        <v>0.7589063810138117</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7780186256883849</v>
+        <v>0.7619653638280464</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7559392833372667</v>
+        <v>0.7195081963862391</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -6495,16 +6495,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7492740567688011</v>
+        <v>0.719249164673206</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>52</v>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7295045610926322</v>
+        <v>0.7779427290481147</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.760599226774353</v>
+        <v>0.7983335476357636</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -6618,16 +6618,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7577131556490708</v>
+        <v>0.7522868581309079</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>52</v>
@@ -6659,16 +6659,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7248350954169093</v>
+        <v>0.7726520423573719</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8990997267897781</v>
+        <v>0.8981619658209448</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -6795,16 +6795,16 @@
         <v>42</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8192485182097321</v>
+        <v>0.8015872856284471</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -6842,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8750409084611804</v>
+        <v>0.8313317166527987</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.839026579020363</v>
+        <v>0.8230532985743091</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8526457140904392</v>
+        <v>0.8200387640637031</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -6959,16 +6959,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8439140566861905</v>
+        <v>0.8033393485519119</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>52</v>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8280109929679107</v>
+        <v>0.8873244731186682</v>
       </c>
       <c r="G8">
         <v>13</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8076300723641546</v>
+        <v>0.8417777177481558</v>
       </c>
       <c r="G9">
         <v>13</v>
@@ -7082,16 +7082,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8570357233919377</v>
+        <v>0.8193679946734481</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>52</v>
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8530758550368694</v>
+        <v>0.9446598666214808</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -7224,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9905066642058236</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -7259,16 +7259,16 @@
         <v>42</v>
       </c>
       <c r="D3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9149410951219044</v>
+        <v>0.9111095480855058</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>52</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9989514291019876</v>
+        <v>0.9528066984306569</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9791000451966371</v>
+        <v>0.9586548344595256</v>
       </c>
       <c r="G5">
         <v>16</v>
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9910855238399483</v>
+        <v>0.9650047124746683</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -7423,16 +7423,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9124369003517596</v>
+        <v>0.9802442316689909</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>52</v>
@@ -7464,16 +7464,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9176544998713265</v>
+        <v>0.9036209788642694</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>52</v>
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9206140811146121</v>
+        <v>0.9519272734409161</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -7546,16 +7546,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9082521269732173</v>
+        <v>0.927228837038259</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>52</v>
@@ -7587,16 +7587,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9185938359661501</v>
+        <v>0.9446598666214808</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>52</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/52_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/52_455-55R22.xlsx
@@ -19,7 +19,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="148">
+  <si>
+    <t>Signal_Value_2</t>
+  </si>
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
   <si>
     <t>Signal_Value_48</t>
   </si>
@@ -682,15 +820,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BX11"/>
+  <dimension ref="A1:DR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:76">
+    <row r="1" spans="1:122">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -917,10 +1055,148 @@
       <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:76">
+    <row r="2" spans="1:122">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -935,16 +1211,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3635967039200855</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3023794275454365</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.06704783463493612</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.002617856003331714</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -953,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01880532797012491</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -962,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.007803449548563829</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.1359113661984662</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1018380341790555</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1070,87 +1346,225 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>0.02382612461573225</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>0.1876105702557266</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>0.1630747182938694</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>0.06875394044248487</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>0.04293043911688</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>0.03631674244407639</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>0.01180327885524153</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>0.04941836931134429</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>0.04148724495562212</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>0.04188120381666652</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>0.04500882226449855</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>0.03660680703545297</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>0.09635440743603367</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>0.0003081514641195815</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>0.08269783400145209</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>0.009082121764539958</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>0.004854008532582383</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>3.561386399203612E-05</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>0.0001664459567693291</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>0.00352567900854951</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>0.01755024694180313</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>0.001159027139656452</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>0.006963368359803282</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>0.0002662041271716221</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>0.002667256781781781</v>
       </c>
       <c r="BX2">
+        <v>0.0003390793399393529</v>
+      </c>
+      <c r="BY2">
+        <v>0.003798926324431643</v>
+      </c>
+      <c r="BZ2">
+        <v>0.002690867380165901</v>
+      </c>
+      <c r="CA2">
+        <v>0.008810310435610116</v>
+      </c>
+      <c r="CB2">
+        <v>0.007865174302537975</v>
+      </c>
+      <c r="CC2">
+        <v>0.0002099924486076998</v>
+      </c>
+      <c r="CD2">
+        <v>0.00193702298285693</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:76">
+    <row r="3" spans="1:122">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1282,105 +1696,243 @@
         <v>0</v>
       </c>
       <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
         <v>0.280927468568618</v>
       </c>
-      <c r="AT3">
+      <c r="CN3">
         <v>0.02527335723360415</v>
       </c>
-      <c r="AU3">
+      <c r="CO3">
         <v>0.1362031040499329</v>
       </c>
-      <c r="AV3">
+      <c r="CP3">
         <v>0.03375451506464101</v>
       </c>
-      <c r="AW3">
+      <c r="CQ3">
         <v>0.05627568581804687</v>
       </c>
-      <c r="AX3">
+      <c r="CR3">
         <v>0.03313105325420179</v>
       </c>
-      <c r="AY3">
+      <c r="CS3">
         <v>0.001169811618076724</v>
       </c>
-      <c r="AZ3">
+      <c r="CT3">
         <v>0.01392807160991089</v>
       </c>
-      <c r="BA3">
+      <c r="CU3">
         <v>5.54746856600992E-05</v>
       </c>
-      <c r="BB3">
+      <c r="CV3">
         <v>0.0733314874408626</v>
       </c>
-      <c r="BC3">
+      <c r="CW3">
         <v>0.0308732648666852</v>
       </c>
-      <c r="BD3">
+      <c r="CX3">
         <v>0.06989126107979875</v>
       </c>
-      <c r="BE3">
+      <c r="CY3">
         <v>0.04677273033840833</v>
       </c>
-      <c r="BF3">
+      <c r="CZ3">
         <v>0.04956996665922069</v>
       </c>
-      <c r="BG3">
+      <c r="DA3">
         <v>0.04561896663013068</v>
       </c>
-      <c r="BH3">
+      <c r="DB3">
         <v>0.01433332916770745</v>
       </c>
-      <c r="BI3">
+      <c r="DC3">
         <v>0.002216498883220949</v>
       </c>
-      <c r="BJ3">
+      <c r="DD3">
         <v>6.766315077505738E-06</v>
       </c>
-      <c r="BK3">
+      <c r="DE3">
         <v>0.004200360620568632</v>
       </c>
-      <c r="BL3">
+      <c r="DF3">
         <v>0.02257428194176336</v>
       </c>
-      <c r="BM3">
+      <c r="DG3">
         <v>0.001206623942258751</v>
       </c>
-      <c r="BN3">
+      <c r="DH3">
         <v>0.0188744699141277</v>
       </c>
-      <c r="BO3">
+      <c r="DI3">
         <v>0.0002945517495724712</v>
       </c>
-      <c r="BP3">
+      <c r="DJ3">
         <v>0.00295016034423638</v>
       </c>
-      <c r="BQ3">
+      <c r="DK3">
         <v>3.15874283921251E-05</v>
       </c>
-      <c r="BR3">
+      <c r="DL3">
         <v>0.002668717642585394</v>
       </c>
-      <c r="BS3">
+      <c r="DM3">
         <v>4.410013169601918E-05</v>
       </c>
-      <c r="BT3">
+      <c r="DN3">
         <v>0.01142153570411348</v>
       </c>
-      <c r="BU3">
+      <c r="DO3">
         <v>0.01503666353043505</v>
       </c>
-      <c r="BV3">
+      <c r="DP3">
         <v>0.001772021764709986</v>
       </c>
-      <c r="BW3">
+      <c r="DQ3">
         <v>0.002882924853093728</v>
       </c>
-      <c r="BX3">
+      <c r="DR3">
         <v>0.002709187148642421</v>
       </c>
     </row>
-    <row r="4" spans="1:76">
+    <row r="4" spans="1:122">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1512,105 +2064,243 @@
         <v>0</v>
       </c>
       <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
         <v>0.2684097885316018</v>
       </c>
-      <c r="AT4">
+      <c r="CN4">
         <v>0.000114181103979234</v>
       </c>
-      <c r="AU4">
+      <c r="CO4">
         <v>0.1443839530232052</v>
       </c>
-      <c r="AV4">
+      <c r="CP4">
         <v>0.0479328323970914</v>
       </c>
-      <c r="AW4">
+      <c r="CQ4">
         <v>0.01912797948996432</v>
       </c>
-      <c r="AX4">
+      <c r="CR4">
         <v>0.02042303313969496</v>
       </c>
-      <c r="AY4">
+      <c r="CS4">
         <v>0.004613652506655045</v>
       </c>
-      <c r="AZ4">
+      <c r="CT4">
         <v>0.03400453435346425</v>
       </c>
-      <c r="BA4">
+      <c r="CU4">
         <v>0.03361912788423153</v>
       </c>
-      <c r="BB4">
+      <c r="CV4">
         <v>0.07405091278539642</v>
       </c>
-      <c r="BC4">
+      <c r="CW4">
         <v>0.04550374929823389</v>
       </c>
-      <c r="BD4">
+      <c r="CX4">
         <v>0.06672263650029367</v>
       </c>
-      <c r="BE4">
+      <c r="CY4">
         <v>0.07242533563898695</v>
       </c>
-      <c r="BF4">
+      <c r="CZ4">
         <v>0.01130129389466826</v>
       </c>
-      <c r="BG4">
+      <c r="DA4">
         <v>0.1101736878831899</v>
       </c>
-      <c r="BH4">
+      <c r="DB4">
         <v>0.0003494905930891119</v>
       </c>
-      <c r="BI4">
+      <c r="DC4">
         <v>0.004412808162753427</v>
       </c>
-      <c r="BJ4">
+      <c r="DD4">
         <v>0.001175969646834242</v>
       </c>
-      <c r="BK4">
+      <c r="DE4">
         <v>0.0004250547324722265</v>
       </c>
-      <c r="BL4">
+      <c r="DF4">
         <v>0.01085871411255758</v>
       </c>
-      <c r="BM4">
+      <c r="DG4">
         <v>0.004621816352089124</v>
       </c>
-      <c r="BN4">
+      <c r="DH4">
         <v>0.009837909377843512</v>
       </c>
-      <c r="BO4">
+      <c r="DI4">
         <v>0.0005428857122339952</v>
       </c>
-      <c r="BP4">
+      <c r="DJ4">
         <v>4.545010505378775E-07</v>
       </c>
-      <c r="BQ4">
+      <c r="DK4">
         <v>0.002095687530047035</v>
       </c>
-      <c r="BR4">
+      <c r="DL4">
         <v>0.000390025670666349</v>
       </c>
-      <c r="BS4">
+      <c r="DM4">
         <v>0.001319718189831889</v>
       </c>
-      <c r="BT4">
+      <c r="DN4">
         <v>0.0008019553470990021</v>
       </c>
-      <c r="BU4">
+      <c r="DO4">
         <v>0.004206870137512597</v>
       </c>
-      <c r="BV4">
+      <c r="DP4">
         <v>0.002750610920657762</v>
       </c>
-      <c r="BW4">
+      <c r="DQ4">
         <v>8.569448398167464E-05</v>
       </c>
-      <c r="BX4">
+      <c r="DR4">
         <v>0.003317636098622948</v>
       </c>
     </row>
-    <row r="5" spans="1:76">
+    <row r="5" spans="1:122">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1619,28 +2309,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.3055767741129268</v>
       </c>
       <c r="E5">
-        <v>0.2169405108288327</v>
+        <v>0.1541202185969504</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1432644550902644</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0903818509884606</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0628341143723643</v>
+        <v>0.01072209096121574</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02765578409131281</v>
       </c>
       <c r="K5">
-        <v>0.006500209546215168</v>
+        <v>0.006486154441627204</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1649,49 +2339,49 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.02465733627668013</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.07842683295464511</v>
+        <v>0.00701902635673402</v>
       </c>
       <c r="P5">
-        <v>0.138960053770584</v>
+        <v>0.02585137994116688</v>
       </c>
       <c r="Q5">
-        <v>0.06108793474626269</v>
+        <v>0.09370662185852782</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.002330050065504971</v>
       </c>
       <c r="S5">
-        <v>0.1356015358852165</v>
+        <v>0.02276153887724932</v>
       </c>
       <c r="T5">
-        <v>0.003618475835287874</v>
+        <v>0.01270590128973286</v>
       </c>
       <c r="U5">
-        <v>0.008731043109357236</v>
+        <v>0.01885883718603808</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.009502396095451077</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0214963838220414</v>
       </c>
       <c r="X5">
-        <v>0.004747277012433282</v>
+        <v>0.08042643506612444</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.06725583848869356</v>
       </c>
       <c r="Z5">
-        <v>0.004596079606229161</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.00639708035111123</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1700,16 +2390,16 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.0218829193936335</v>
       </c>
       <c r="AF5">
-        <v>9.468465080963928E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.01021252242382682</v>
+        <v>0.03256275950308564</v>
       </c>
       <c r="AH5">
-        <v>0.009345082902530409</v>
+        <v>0.07268180950087258</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1837,10 +2527,148 @@
       <c r="BX5">
         <v>0</v>
       </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:76">
+    <row r="6" spans="1:122">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1852,22 +2680,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3906422407221644</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05132783837073779</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1608000911357566</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03648098187134798</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01233885710241942</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.008052912283775466</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1879,22 +2707,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.05986527490003742</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03178631795157166</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.06874424972589242</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.02355470816679919</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.02733257114882071</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.09407866909534536</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1909,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0106019760838879</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.004922616578908291</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0002722724031428245</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1927,16 +2755,16 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.01261269444787918</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.003839487923074789</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.00128954802543053</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1945,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001456692063008315</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -1990,87 +2818,225 @@
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>0.366554832188808</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>0.05063644717470527</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>0.1525604947769098</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>0.03681329408919156</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>0.01433578940635264</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>0.01034536413709685</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>0.001344268635014682</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>0.0004958632147130999</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>0.002847707021099459</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>0.05858522017639865</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>0.03244233124929525</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>0.06685198211790866</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>0.02477829797734983</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>0.02829567408580249</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>0.09043957167203041</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>0.0009082328924049043</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>0.000361616095718454</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>0.001022589719548887</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>0.00064678633045591</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>0.01271866781489179</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>0.007430904989931025</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>0.003101206009909558</v>
       </c>
       <c r="BU6">
-        <v>0</v>
+        <v>0.002847707021099459</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>0.0001755968485685385</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>0.00181424397862786</v>
       </c>
       <c r="BX6">
+        <v>0.01459074543337267</v>
+      </c>
+      <c r="BY6">
+        <v>0.006422458978379115</v>
+      </c>
+      <c r="BZ6">
+        <v>0.001274107778247808</v>
+      </c>
+      <c r="CA6">
+        <v>0.004048339610724122</v>
+      </c>
+      <c r="CB6">
+        <v>0.001079082079039647</v>
+      </c>
+      <c r="CC6">
+        <v>2.661757199745784E-05</v>
+      </c>
+      <c r="CD6">
+        <v>0.004203958924406013</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:76">
+    <row r="7" spans="1:122">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2079,22 +3045,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0229941773209142</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3581101889972687</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2586026349287863</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.07954216342623682</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0006396251302154804</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.08345055874849053</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2106,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.06701893407400304</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.109885949043076</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2118,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.01391936797899296</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.005836400352016371</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2217,90 +3183,228 @@
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>0.03982542089732673</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>0.2113776275549094</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>0.1604378339170175</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>0.06877340147838981</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>0.0283817040245556</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>0.07077418275609952</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>0.02222458132344144</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>4.56713150531654E-05</v>
       </c>
       <c r="BF7">
-        <v>0</v>
+        <v>0.01413811301947565</v>
       </c>
       <c r="BG7">
-        <v>0</v>
+        <v>0.06236252418515691</v>
       </c>
       <c r="BH7">
-        <v>0</v>
+        <v>0.08430695761876528</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>0.0280542678570827</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>0.02056684987470182</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>0.03517985484449679</v>
       </c>
       <c r="BL7">
-        <v>0</v>
+        <v>0.003200975878937965</v>
       </c>
       <c r="BM7">
-        <v>0</v>
+        <v>0.03104203127165949</v>
       </c>
       <c r="BN7">
-        <v>0</v>
+        <v>0.0003560134393835769</v>
       </c>
       <c r="BO7">
-        <v>0</v>
+        <v>0.004068062995809566</v>
       </c>
       <c r="BP7">
-        <v>0</v>
+        <v>6.49960987561589E-05</v>
       </c>
       <c r="BQ7">
-        <v>0</v>
+        <v>0.01222813439512363</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>0.009533785851045619</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>0.02556334592102643</v>
       </c>
       <c r="BT7">
-        <v>0</v>
+        <v>0.0001278481194632207</v>
       </c>
       <c r="BU7">
-        <v>0</v>
+        <v>0.007585573311699068</v>
       </c>
       <c r="BV7">
-        <v>0</v>
+        <v>0.004109258566107865</v>
       </c>
       <c r="BW7">
-        <v>0</v>
+        <v>9.447146068819361E-06</v>
       </c>
       <c r="BX7">
+        <v>0.02222458132344144</v>
+      </c>
+      <c r="BY7">
+        <v>0.02769240941555647</v>
+      </c>
+      <c r="BZ7">
+        <v>0.002540375489923841</v>
+      </c>
+      <c r="CA7">
+        <v>7.418556280174572E-06</v>
+      </c>
+      <c r="CB7">
+        <v>0.001793862695393668</v>
+      </c>
+      <c r="CC7">
+        <v>0.001402888857850882</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>0</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:76">
+    <row r="8" spans="1:122">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2309,22 +3413,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1006044882567974</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1561250510154857</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07684254733771836</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.08723834627909323</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.05450233544645027</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1807105432289167</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2336,103 +3440,103 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.03534399988996514</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.08657541759368782</v>
+        <v>0.3713588143983169</v>
       </c>
       <c r="O8">
-        <v>0.1093817440705535</v>
+        <v>0.3030501665156428</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.0006915075837290431</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.01749681249063502</v>
       </c>
       <c r="R8">
-        <v>0.01629650574560121</v>
+        <v>0.0001794084749030346</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.003379770624517249</v>
       </c>
       <c r="T8">
-        <v>0.04651924025479718</v>
+        <v>0.02046058856107476</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.002278230325800131</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.01361142937470636</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.004396734891039539</v>
       </c>
       <c r="X8">
-        <v>0.0002090142116062177</v>
+        <v>0.002358385422649348</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>8.936241077506726E-06</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.006710127051523317</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.0057578457007898</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.04139013065777865</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.002046079942320133</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.01311731500336384</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.02718903799785405</v>
       </c>
       <c r="AF8">
-        <v>0.049650766669327</v>
+        <v>0.009298004192945197</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>0.01011797722697134</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.007221714608830272</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.0297875456575404</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.01453609622134461</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>0.002677119744170487</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.01912976867088444</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.04172951900127421</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>0.007445180539781171</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>0.003242549411953699</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.007835501288099195</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.003379770624517249</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>0.002801934787671022</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>0.005315996766295334</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2527,10 +3631,148 @@
       <c r="BX8">
         <v>0</v>
       </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:76">
+    <row r="9" spans="1:122">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2542,22 +3784,22 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2389783172627683</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.008440651490118498</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.1486745367921448</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.04413230773287172</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.03906225952891765</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1233160891363233</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2566,16 +3808,16 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.00204940417277995</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.04350075764681732</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.150179223873022</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.04344417011239219</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2584,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.1101495556927603</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.041281732339598</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2623,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.001283030677058773</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.005507963542427147</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2680,87 +3922,225 @@
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>0.168145582346883</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>0.02481967656605608</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>0.1120034717377256</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>0.04700927817699336</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>0.04385721515619053</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>0.09623805454533255</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>0.01913305847974537</v>
       </c>
       <c r="BF9">
-        <v>0</v>
+        <v>0.004913438548966596</v>
       </c>
       <c r="BG9">
-        <v>0</v>
+        <v>0.02084622039455917</v>
       </c>
       <c r="BH9">
-        <v>0</v>
+        <v>0.04661664173805687</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>0.1129389398663745</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>0.04658146111106386</v>
       </c>
       <c r="BK9">
-        <v>0</v>
+        <v>0.01957210014010858</v>
       </c>
       <c r="BL9">
-        <v>0</v>
+        <v>0.01025656627579911</v>
       </c>
       <c r="BM9">
-        <v>0</v>
+        <v>0.08805238421043274</v>
       </c>
       <c r="BN9">
-        <v>0</v>
+        <v>0.003528424381162653</v>
       </c>
       <c r="BO9">
-        <v>0</v>
+        <v>0.04523706755419472</v>
       </c>
       <c r="BP9">
-        <v>0</v>
+        <v>0.002132500763750724</v>
       </c>
       <c r="BQ9">
-        <v>0</v>
+        <v>0.0005161823198919529</v>
       </c>
       <c r="BR9">
-        <v>0</v>
+        <v>0.003480185638793401</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>0.01314458747270716</v>
       </c>
       <c r="BT9">
-        <v>0</v>
+        <v>0.00976737786253125</v>
       </c>
       <c r="BU9">
-        <v>0</v>
+        <v>0.001249649839841255</v>
       </c>
       <c r="BV9">
-        <v>0</v>
+        <v>0.002123103408004706</v>
       </c>
       <c r="BW9">
-        <v>0</v>
+        <v>0.009489681109052324</v>
       </c>
       <c r="BX9">
+        <v>0.001086812807690674</v>
+      </c>
+      <c r="BY9">
+        <v>2.47555320519471E-05</v>
+      </c>
+      <c r="BZ9">
+        <v>0.02036976386814938</v>
+      </c>
+      <c r="CA9">
+        <v>0.02299641634058865</v>
+      </c>
+      <c r="CB9">
+        <v>0.003784617739237325</v>
+      </c>
+      <c r="CC9">
+        <v>4.847771934261185E-05</v>
+      </c>
+      <c r="CD9">
+        <v>3.63063487215706E-05</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:76">
+    <row r="10" spans="1:122">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2772,70 +4152,70 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1502149256278751</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.215962750552791</v>
+        <v>0.1507864943233962</v>
       </c>
       <c r="G10">
-        <v>0.1731085669622986</v>
+        <v>0.02088646322085574</v>
       </c>
       <c r="H10">
-        <v>0.0663963779682665</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02359232130458489</v>
+        <v>0.003992030173812102</v>
       </c>
       <c r="J10">
-        <v>0.1230119157150918</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.006589934223255843</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03769433206029358</v>
       </c>
       <c r="N10">
-        <v>0.06708113654254023</v>
+        <v>0.03560632646249321</v>
       </c>
       <c r="O10">
-        <v>0.1078608423648108</v>
+        <v>0.03317474916851865</v>
       </c>
       <c r="P10">
-        <v>0.04626479906233576</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.00924935634631421</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.003451789402775468</v>
       </c>
       <c r="S10">
-        <v>0.02353692039247039</v>
+        <v>0.1206238264375365</v>
       </c>
       <c r="T10">
-        <v>0.002969443506934922</v>
+        <v>0.05513795292409557</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.03490591047876639</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.00306102677455574</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.1425389404365685</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.1620115952419879</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.02143974488460882</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.006911010360595415</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -2844,25 +4224,25 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.0009902281096874905</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.005306327037733329</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.007092502606136535</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.01143179029912801</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.05382651581886349</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.05811811932246218</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.01517303388555928</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -2987,10 +4367,148 @@
       <c r="BX10">
         <v>0</v>
       </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:76">
+    <row r="11" spans="1:122">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3002,22 +4520,22 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.445885879486343</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.09732721967092051</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1001962573959893</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1292426858041192</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01430337936050701</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3026,25 +4544,25 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.01214773473032471</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.1455567101732772</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.02630063916063711</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.0104095823857207</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01862991183216123</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -3137,84 +4655,222 @@
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>0.01307307042177202</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>0.2994165451141088</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>0.08290612718722559</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>0.08468825636235949</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>0.02016290404035962</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>0.1027307125654495</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>0.03133510504414848</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>0.0001498109097037733</v>
       </c>
       <c r="BF11">
-        <v>0</v>
+        <v>0.0009837687258423787</v>
       </c>
       <c r="BG11">
-        <v>0</v>
+        <v>0.02999610655238885</v>
       </c>
       <c r="BH11">
-        <v>0</v>
+        <v>0.1128643188746606</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>0.03878731333149694</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>0.01453907457456557</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>0.02891643723431743</v>
       </c>
       <c r="BL11">
-        <v>0</v>
+        <v>0.02245042937793483</v>
       </c>
       <c r="BM11">
-        <v>0</v>
+        <v>0.03402257048858224</v>
       </c>
       <c r="BN11">
-        <v>0</v>
+        <v>0.01326610433346127</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>0.0009534065154125192</v>
       </c>
       <c r="BP11">
-        <v>0</v>
+        <v>2.890997451562313E-05</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>0.0005445909291164388</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>0.01449975267916551</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>0.0008039576559363491</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>0.005227594700709686</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>1.749344209681477E-05</v>
       </c>
       <c r="BV11">
-        <v>0</v>
+        <v>0.003015584869916199</v>
       </c>
       <c r="BW11">
-        <v>0</v>
+        <v>0.0004660028154023485</v>
       </c>
       <c r="BX11">
+        <v>0.001488512910724918</v>
+      </c>
+      <c r="BY11">
+        <v>0.02207396836911397</v>
+      </c>
+      <c r="BZ11">
+        <v>0.01831557599058747</v>
+      </c>
+      <c r="CA11">
+        <v>0.002175146006022483</v>
+      </c>
+      <c r="CB11">
+        <v>4.771358086245238E-05</v>
+      </c>
+      <c r="CC11">
+        <v>5.313442203974778E-05</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>0</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>0</v>
+      </c>
+      <c r="DO11">
+        <v>0</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
         <v>0</v>
       </c>
     </row>
@@ -3225,15 +4881,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BX11"/>
+  <dimension ref="A1:DR11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:76">
+    <row r="1" spans="1:122">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3460,10 +5116,148 @@
       <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:76">
+    <row r="2" spans="1:122">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3478,222 +5272,360 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3635967039200855</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.6659761314655219</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.7330239661004581</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7356418221037898</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7356418221037898</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7356418221037898</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7544471500739147</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7544471500739147</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7544471500739147</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7622505996224785</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7622505996224785</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8981619658209448</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.8981619658209448</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>1</v>
+        <v>0.02382612461573225</v>
       </c>
       <c r="AZ2">
-        <v>1</v>
+        <v>0.2114366948714588</v>
       </c>
       <c r="BA2">
-        <v>1</v>
+        <v>0.3745114131653282</v>
       </c>
       <c r="BB2">
-        <v>1</v>
+        <v>0.4432653536078131</v>
       </c>
       <c r="BC2">
-        <v>1</v>
+        <v>0.486195792724693</v>
       </c>
       <c r="BD2">
-        <v>1</v>
+        <v>0.5225125351687694</v>
       </c>
       <c r="BE2">
-        <v>1</v>
+        <v>0.534315814024011</v>
       </c>
       <c r="BF2">
-        <v>1</v>
+        <v>0.5837341833353552</v>
       </c>
       <c r="BG2">
-        <v>1</v>
+        <v>0.6252214282909774</v>
       </c>
       <c r="BH2">
-        <v>1</v>
+        <v>0.6671026321076439</v>
       </c>
       <c r="BI2">
-        <v>1</v>
+        <v>0.7121114543721424</v>
       </c>
       <c r="BJ2">
-        <v>1</v>
+        <v>0.7487182614075953</v>
       </c>
       <c r="BK2">
-        <v>1</v>
+        <v>0.845072668843629</v>
       </c>
       <c r="BL2">
-        <v>1</v>
+        <v>0.8453808203077485</v>
       </c>
       <c r="BM2">
-        <v>1</v>
+        <v>0.9280786543092006</v>
       </c>
       <c r="BN2">
-        <v>1</v>
+        <v>0.9371607760737405</v>
       </c>
       <c r="BO2">
-        <v>1</v>
+        <v>0.9420147846063228</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0.9420503984703149</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0.9422168444270842</v>
       </c>
       <c r="BR2">
-        <v>1</v>
+        <v>0.9457425234356337</v>
       </c>
       <c r="BS2">
-        <v>1</v>
+        <v>0.9632927703774369</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>0.9644517975170933</v>
       </c>
       <c r="BU2">
-        <v>1</v>
+        <v>0.9714151658768966</v>
       </c>
       <c r="BV2">
-        <v>1</v>
+        <v>0.9716813700040682</v>
       </c>
       <c r="BW2">
-        <v>1</v>
+        <v>0.97434862678585</v>
       </c>
       <c r="BX2">
-        <v>1</v>
+        <v>0.9746877061257894</v>
+      </c>
+      <c r="BY2">
+        <v>0.978486632450221</v>
+      </c>
+      <c r="BZ2">
+        <v>0.9811774998303869</v>
+      </c>
+      <c r="CA2">
+        <v>0.989987810265997</v>
+      </c>
+      <c r="CB2">
+        <v>0.997852984568535</v>
+      </c>
+      <c r="CC2">
+        <v>0.9980629770171427</v>
+      </c>
+      <c r="CD2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CE2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CF2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CG2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CH2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CI2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CJ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CK2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CL2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CM2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CN2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CO2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CP2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CQ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CR2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CS2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CT2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CU2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CV2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CW2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CX2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CY2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CZ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DA2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DB2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DC2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DD2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DE2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DF2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DG2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DH2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DI2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DJ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DK2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DL2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DM2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DN2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DO2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DP2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DQ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DR2">
+        <v>0.9999999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:76">
+    <row r="3" spans="1:122">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3825,105 +5757,243 @@
         <v>0</v>
       </c>
       <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
         <v>0.280927468568618</v>
       </c>
-      <c r="AT3">
+      <c r="CN3">
         <v>0.3062008258022221</v>
       </c>
-      <c r="AU3">
+      <c r="CO3">
         <v>0.442403929852155</v>
       </c>
-      <c r="AV3">
+      <c r="CP3">
         <v>0.476158444916796</v>
       </c>
-      <c r="AW3">
+      <c r="CQ3">
         <v>0.5324341307348428</v>
       </c>
-      <c r="AX3">
+      <c r="CR3">
         <v>0.5655651839890445</v>
       </c>
-      <c r="AY3">
+      <c r="CS3">
         <v>0.5667349956071213</v>
       </c>
-      <c r="AZ3">
+      <c r="CT3">
         <v>0.5806630672170321</v>
       </c>
-      <c r="BA3">
+      <c r="CU3">
         <v>0.5807185419026922</v>
       </c>
-      <c r="BB3">
+      <c r="CV3">
         <v>0.6540500293435548</v>
       </c>
-      <c r="BC3">
+      <c r="CW3">
         <v>0.68492329421024</v>
       </c>
-      <c r="BD3">
+      <c r="CX3">
         <v>0.7548145552900387</v>
       </c>
-      <c r="BE3">
+      <c r="CY3">
         <v>0.8015872856284471</v>
       </c>
-      <c r="BF3">
+      <c r="CZ3">
         <v>0.8511572522876677</v>
       </c>
-      <c r="BG3">
+      <c r="DA3">
         <v>0.8967762189177984</v>
       </c>
-      <c r="BH3">
+      <c r="DB3">
         <v>0.9111095480855058</v>
       </c>
-      <c r="BI3">
+      <c r="DC3">
         <v>0.9133260469687268</v>
       </c>
-      <c r="BJ3">
+      <c r="DD3">
         <v>0.9133328132838042</v>
       </c>
-      <c r="BK3">
+      <c r="DE3">
         <v>0.9175331739043728</v>
       </c>
-      <c r="BL3">
+      <c r="DF3">
         <v>0.9401074558461362</v>
       </c>
-      <c r="BM3">
+      <c r="DG3">
         <v>0.941314079788395</v>
       </c>
-      <c r="BN3">
+      <c r="DH3">
         <v>0.9601885497025227</v>
       </c>
-      <c r="BO3">
+      <c r="DI3">
         <v>0.9604831014520951</v>
       </c>
-      <c r="BP3">
+      <c r="DJ3">
         <v>0.9634332617963315</v>
       </c>
-      <c r="BQ3">
+      <c r="DK3">
         <v>0.9634648492247236</v>
       </c>
-      <c r="BR3">
+      <c r="DL3">
         <v>0.966133566867309</v>
       </c>
-      <c r="BS3">
+      <c r="DM3">
         <v>0.966177666999005</v>
       </c>
-      <c r="BT3">
+      <c r="DN3">
         <v>0.9775992027031185</v>
       </c>
-      <c r="BU3">
+      <c r="DO3">
         <v>0.9926358662335536</v>
       </c>
-      <c r="BV3">
+      <c r="DP3">
         <v>0.9944078879982636</v>
       </c>
-      <c r="BW3">
+      <c r="DQ3">
         <v>0.9972908128513573</v>
       </c>
-      <c r="BX3">
+      <c r="DR3">
         <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:76">
+    <row r="4" spans="1:122">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4055,105 +6125,243 @@
         <v>0</v>
       </c>
       <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
         <v>0.2684097885316018</v>
       </c>
-      <c r="AT4">
+      <c r="CN4">
         <v>0.2685239696355811</v>
       </c>
-      <c r="AU4">
+      <c r="CO4">
         <v>0.4129079226587863</v>
       </c>
-      <c r="AV4">
+      <c r="CP4">
         <v>0.4608407550558777</v>
       </c>
-      <c r="AW4">
+      <c r="CQ4">
         <v>0.479968734545842</v>
       </c>
-      <c r="AX4">
+      <c r="CR4">
         <v>0.5003917676855369</v>
       </c>
-      <c r="AY4">
+      <c r="CS4">
         <v>0.505005420192192</v>
       </c>
-      <c r="AZ4">
+      <c r="CT4">
         <v>0.5390099545456563</v>
       </c>
-      <c r="BA4">
+      <c r="CU4">
         <v>0.5726290824298877</v>
       </c>
-      <c r="BB4">
+      <c r="CV4">
         <v>0.6466799952152842</v>
       </c>
-      <c r="BC4">
+      <c r="CW4">
         <v>0.6921837445135181</v>
       </c>
-      <c r="BD4">
+      <c r="CX4">
         <v>0.7589063810138117</v>
       </c>
-      <c r="BE4">
+      <c r="CY4">
         <v>0.8313317166527987</v>
       </c>
-      <c r="BF4">
+      <c r="CZ4">
         <v>0.842633010547467</v>
       </c>
-      <c r="BG4">
+      <c r="DA4">
         <v>0.9528066984306569</v>
       </c>
-      <c r="BH4">
+      <c r="DB4">
         <v>0.953156189023746</v>
       </c>
-      <c r="BI4">
+      <c r="DC4">
         <v>0.9575689971864995</v>
       </c>
-      <c r="BJ4">
+      <c r="DD4">
         <v>0.9587449668333337</v>
       </c>
-      <c r="BK4">
+      <c r="DE4">
         <v>0.9591700215658059</v>
       </c>
-      <c r="BL4">
+      <c r="DF4">
         <v>0.9700287356783635</v>
       </c>
-      <c r="BM4">
+      <c r="DG4">
         <v>0.9746505520304526</v>
       </c>
-      <c r="BN4">
+      <c r="DH4">
         <v>0.984488461408296</v>
       </c>
-      <c r="BO4">
+      <c r="DI4">
         <v>0.9850313471205301</v>
       </c>
-      <c r="BP4">
+      <c r="DJ4">
         <v>0.9850318016215807</v>
       </c>
-      <c r="BQ4">
+      <c r="DK4">
         <v>0.9871274891516277</v>
       </c>
-      <c r="BR4">
+      <c r="DL4">
         <v>0.9875175148222941</v>
       </c>
-      <c r="BS4">
+      <c r="DM4">
         <v>0.988837233012126</v>
       </c>
-      <c r="BT4">
+      <c r="DN4">
         <v>0.989639188359225</v>
       </c>
-      <c r="BU4">
+      <c r="DO4">
         <v>0.9938460584967377</v>
       </c>
-      <c r="BV4">
+      <c r="DP4">
         <v>0.9965966694173954</v>
       </c>
-      <c r="BW4">
+      <c r="DQ4">
         <v>0.9966823639013771</v>
       </c>
-      <c r="BX4">
+      <c r="DR4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:76">
+    <row r="5" spans="1:122">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4162,94 +6370,94 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.3055767741129268</v>
       </c>
       <c r="E5">
-        <v>0.2169405108288327</v>
+        <v>0.4596969927098772</v>
       </c>
       <c r="F5">
-        <v>0.2169405108288327</v>
+        <v>0.4596969927098772</v>
       </c>
       <c r="G5">
-        <v>0.360204965919097</v>
+        <v>0.4596969927098772</v>
       </c>
       <c r="H5">
-        <v>0.4505868169075576</v>
+        <v>0.4596969927098772</v>
       </c>
       <c r="I5">
-        <v>0.5134209312799219</v>
+        <v>0.4704190836710929</v>
       </c>
       <c r="J5">
-        <v>0.5134209312799219</v>
+        <v>0.4980748677624057</v>
       </c>
       <c r="K5">
-        <v>0.5199211408261372</v>
+        <v>0.504561022204033</v>
       </c>
       <c r="L5">
-        <v>0.5199211408261372</v>
+        <v>0.504561022204033</v>
       </c>
       <c r="M5">
-        <v>0.5199211408261372</v>
+        <v>0.504561022204033</v>
       </c>
       <c r="N5">
-        <v>0.5445784771028173</v>
+        <v>0.504561022204033</v>
       </c>
       <c r="O5">
-        <v>0.6230053100574624</v>
+        <v>0.511580048560767</v>
       </c>
       <c r="P5">
-        <v>0.7619653638280464</v>
+        <v>0.5374314285019339</v>
       </c>
       <c r="Q5">
-        <v>0.8230532985743091</v>
+        <v>0.6311380503604618</v>
       </c>
       <c r="R5">
-        <v>0.8230532985743091</v>
+        <v>0.6334681004259668</v>
       </c>
       <c r="S5">
-        <v>0.9586548344595256</v>
+        <v>0.6562296393032161</v>
       </c>
       <c r="T5">
-        <v>0.9622733102948134</v>
+        <v>0.6689355405929489</v>
       </c>
       <c r="U5">
-        <v>0.9710043534041707</v>
+        <v>0.687794377778987</v>
       </c>
       <c r="V5">
-        <v>0.9710043534041707</v>
+        <v>0.6972967738744381</v>
       </c>
       <c r="W5">
-        <v>0.9710043534041707</v>
+        <v>0.7187931576964796</v>
       </c>
       <c r="X5">
-        <v>0.975751630416604</v>
+        <v>0.799219592762604</v>
       </c>
       <c r="Y5">
-        <v>0.975751630416604</v>
+        <v>0.8664754312512976</v>
       </c>
       <c r="Z5">
-        <v>0.9803477100228332</v>
+        <v>0.8664754312512976</v>
       </c>
       <c r="AA5">
-        <v>0.9803477100228332</v>
+        <v>0.8664754312512976</v>
       </c>
       <c r="AB5">
-        <v>0.9803477100228332</v>
+        <v>0.8728725116024088</v>
       </c>
       <c r="AC5">
-        <v>0.9803477100228332</v>
+        <v>0.8728725116024088</v>
       </c>
       <c r="AD5">
-        <v>0.9803477100228332</v>
+        <v>0.8728725116024088</v>
       </c>
       <c r="AE5">
-        <v>0.9803477100228332</v>
+        <v>0.8947554309960423</v>
       </c>
       <c r="AF5">
-        <v>0.9804423946736428</v>
+        <v>0.8947554309960423</v>
       </c>
       <c r="AG5">
-        <v>0.9906549170974697</v>
+        <v>0.9273181904991279</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -4380,10 +6588,148 @@
       <c r="BX5">
         <v>1</v>
       </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>1</v>
+      </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
+      <c r="CE5">
+        <v>1</v>
+      </c>
+      <c r="CF5">
+        <v>1</v>
+      </c>
+      <c r="CG5">
+        <v>1</v>
+      </c>
+      <c r="CH5">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <v>1</v>
+      </c>
+      <c r="CJ5">
+        <v>1</v>
+      </c>
+      <c r="CK5">
+        <v>1</v>
+      </c>
+      <c r="CL5">
+        <v>1</v>
+      </c>
+      <c r="CM5">
+        <v>1</v>
+      </c>
+      <c r="CN5">
+        <v>1</v>
+      </c>
+      <c r="CO5">
+        <v>1</v>
+      </c>
+      <c r="CP5">
+        <v>1</v>
+      </c>
+      <c r="CQ5">
+        <v>1</v>
+      </c>
+      <c r="CR5">
+        <v>1</v>
+      </c>
+      <c r="CS5">
+        <v>1</v>
+      </c>
+      <c r="CT5">
+        <v>1</v>
+      </c>
+      <c r="CU5">
+        <v>1</v>
+      </c>
+      <c r="CV5">
+        <v>1</v>
+      </c>
+      <c r="CW5">
+        <v>1</v>
+      </c>
+      <c r="CX5">
+        <v>1</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DD5">
+        <v>1</v>
+      </c>
+      <c r="DE5">
+        <v>1</v>
+      </c>
+      <c r="DF5">
+        <v>1</v>
+      </c>
+      <c r="DG5">
+        <v>1</v>
+      </c>
+      <c r="DH5">
+        <v>1</v>
+      </c>
+      <c r="DI5">
+        <v>1</v>
+      </c>
+      <c r="DJ5">
+        <v>1</v>
+      </c>
+      <c r="DK5">
+        <v>1</v>
+      </c>
+      <c r="DL5">
+        <v>1</v>
+      </c>
+      <c r="DM5">
+        <v>1</v>
+      </c>
+      <c r="DN5">
+        <v>1</v>
+      </c>
+      <c r="DO5">
+        <v>1</v>
+      </c>
+      <c r="DP5">
+        <v>1</v>
+      </c>
+      <c r="DQ5">
+        <v>1</v>
+      </c>
+      <c r="DR5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:76">
+    <row r="6" spans="1:122">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4395,225 +6741,363 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3906422407221644</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4419700790929021</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6027701702286588</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.6392511521000067</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6515900092024262</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6596429214862016</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6596429214862016</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6596429214862016</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6596429214862016</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7195081963862391</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7512945143378107</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8200387640637031</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8435934722305023</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.870926043379323</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.9650047124746683</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.9650047124746683</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.9650047124746683</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.9650047124746683</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.9650047124746683</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.9756066885585563</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.9805293051374645</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.9808015775406074</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.9808015775406074</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.9808015775406074</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.9808015775406074</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.9934142719884865</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.9972537599115613</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.9972537599115613</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.9985433079369919</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.9985433079369919</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.9985433079369919</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0.366554832188808</v>
       </c>
       <c r="AZ6">
-        <v>1</v>
+        <v>0.4171912793635132</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0.569751774140423</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0.6065650682296145</v>
       </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0.6209008576359671</v>
       </c>
       <c r="BD6">
-        <v>1</v>
+        <v>0.631246221773064</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>0.6325904904080787</v>
       </c>
       <c r="BF6">
-        <v>1</v>
+        <v>0.6330863536227918</v>
       </c>
       <c r="BG6">
-        <v>1</v>
+        <v>0.6359340606438912</v>
       </c>
       <c r="BH6">
-        <v>1</v>
+        <v>0.6945192808202899</v>
       </c>
       <c r="BI6">
-        <v>1</v>
+        <v>0.7269616120695852</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>0.7938135941874939</v>
       </c>
       <c r="BK6">
-        <v>1</v>
+        <v>0.8185918921648437</v>
       </c>
       <c r="BL6">
-        <v>1</v>
+        <v>0.8468875662506462</v>
       </c>
       <c r="BM6">
-        <v>1</v>
+        <v>0.9373271379226766</v>
       </c>
       <c r="BN6">
-        <v>1</v>
+        <v>0.9382353708150816</v>
       </c>
       <c r="BO6">
-        <v>1</v>
+        <v>0.9385969869108001</v>
       </c>
       <c r="BP6">
-        <v>1</v>
+        <v>0.939619576630349</v>
       </c>
       <c r="BQ6">
-        <v>1</v>
+        <v>0.9402663629608049</v>
       </c>
       <c r="BR6">
-        <v>1</v>
+        <v>0.9529850307756967</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>0.9604159357656278</v>
       </c>
       <c r="BT6">
-        <v>1</v>
+        <v>0.9635171417755374</v>
       </c>
       <c r="BU6">
-        <v>1</v>
+        <v>0.9663648487966369</v>
       </c>
       <c r="BV6">
-        <v>1</v>
+        <v>0.9665404456452054</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0.9683546896238332</v>
       </c>
       <c r="BX6">
+        <v>0.9829454350572059</v>
+      </c>
+      <c r="BY6">
+        <v>0.989367894035585</v>
+      </c>
+      <c r="BZ6">
+        <v>0.9906420018138328</v>
+      </c>
+      <c r="CA6">
+        <v>0.9946903414245569</v>
+      </c>
+      <c r="CB6">
+        <v>0.9957694235035965</v>
+      </c>
+      <c r="CC6">
+        <v>0.9957960410755941</v>
+      </c>
+      <c r="CD6">
+        <v>1</v>
+      </c>
+      <c r="CE6">
+        <v>1</v>
+      </c>
+      <c r="CF6">
+        <v>1</v>
+      </c>
+      <c r="CG6">
+        <v>1</v>
+      </c>
+      <c r="CH6">
+        <v>1</v>
+      </c>
+      <c r="CI6">
+        <v>1</v>
+      </c>
+      <c r="CJ6">
+        <v>1</v>
+      </c>
+      <c r="CK6">
+        <v>1</v>
+      </c>
+      <c r="CL6">
+        <v>1</v>
+      </c>
+      <c r="CM6">
+        <v>1</v>
+      </c>
+      <c r="CN6">
+        <v>1</v>
+      </c>
+      <c r="CO6">
+        <v>1</v>
+      </c>
+      <c r="CP6">
+        <v>1</v>
+      </c>
+      <c r="CQ6">
+        <v>1</v>
+      </c>
+      <c r="CR6">
+        <v>1</v>
+      </c>
+      <c r="CS6">
+        <v>1</v>
+      </c>
+      <c r="CT6">
+        <v>1</v>
+      </c>
+      <c r="CU6">
+        <v>1</v>
+      </c>
+      <c r="CV6">
+        <v>1</v>
+      </c>
+      <c r="CW6">
+        <v>1</v>
+      </c>
+      <c r="CX6">
+        <v>1</v>
+      </c>
+      <c r="CY6">
+        <v>1</v>
+      </c>
+      <c r="CZ6">
+        <v>1</v>
+      </c>
+      <c r="DA6">
+        <v>1</v>
+      </c>
+      <c r="DB6">
+        <v>1</v>
+      </c>
+      <c r="DC6">
+        <v>1</v>
+      </c>
+      <c r="DD6">
+        <v>1</v>
+      </c>
+      <c r="DE6">
+        <v>1</v>
+      </c>
+      <c r="DF6">
+        <v>1</v>
+      </c>
+      <c r="DG6">
+        <v>1</v>
+      </c>
+      <c r="DH6">
+        <v>1</v>
+      </c>
+      <c r="DI6">
+        <v>1</v>
+      </c>
+      <c r="DJ6">
+        <v>1</v>
+      </c>
+      <c r="DK6">
+        <v>1</v>
+      </c>
+      <c r="DL6">
+        <v>1</v>
+      </c>
+      <c r="DM6">
+        <v>1</v>
+      </c>
+      <c r="DN6">
+        <v>1</v>
+      </c>
+      <c r="DO6">
+        <v>1</v>
+      </c>
+      <c r="DP6">
+        <v>1</v>
+      </c>
+      <c r="DQ6">
+        <v>1</v>
+      </c>
+      <c r="DR6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:76">
+    <row r="7" spans="1:122">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4622,228 +7106,366 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0229941773209142</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3811043663181828</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6397070012469692</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.719249164673206</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.7198887898034214</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8033393485519119</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.8033393485519119</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8033393485519119</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8033393485519119</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.870358282625915</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9802442316689909</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9802442316689909</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9802442316689909</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9941635996479838</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.9941635996479838</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7">
-        <v>1</v>
+        <v>0.03982542089732673</v>
       </c>
       <c r="AY7">
-        <v>1</v>
+        <v>0.2512030484522361</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
+        <v>0.4116408823692536</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>0.4804142838476434</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>0.508795987872199</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>0.5795701706282985</v>
       </c>
       <c r="BD7">
-        <v>1</v>
+        <v>0.6017947519517399</v>
       </c>
       <c r="BE7">
-        <v>1</v>
+        <v>0.6018404232667931</v>
       </c>
       <c r="BF7">
-        <v>1</v>
+        <v>0.6159785362862688</v>
       </c>
       <c r="BG7">
-        <v>1</v>
+        <v>0.6783410604714256</v>
       </c>
       <c r="BH7">
-        <v>1</v>
+        <v>0.7626480180901909</v>
       </c>
       <c r="BI7">
-        <v>1</v>
+        <v>0.7907022859472735</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>0.8112691358219754</v>
       </c>
       <c r="BK7">
-        <v>1</v>
+        <v>0.8464489906664722</v>
       </c>
       <c r="BL7">
-        <v>1</v>
+        <v>0.8496499665454101</v>
       </c>
       <c r="BM7">
-        <v>1</v>
+        <v>0.8806919978170696</v>
       </c>
       <c r="BN7">
-        <v>1</v>
+        <v>0.8810480112564533</v>
       </c>
       <c r="BO7">
-        <v>1</v>
+        <v>0.8851160742522628</v>
       </c>
       <c r="BP7">
-        <v>1</v>
+        <v>0.885181070351019</v>
       </c>
       <c r="BQ7">
-        <v>1</v>
+        <v>0.8974092047461426</v>
       </c>
       <c r="BR7">
-        <v>1</v>
+        <v>0.9069429905971882</v>
       </c>
       <c r="BS7">
-        <v>1</v>
+        <v>0.9325063365182146</v>
       </c>
       <c r="BT7">
-        <v>1</v>
+        <v>0.9326341846376778</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0.9402197579493768</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>0.9443290165154847</v>
       </c>
       <c r="BW7">
-        <v>1</v>
+        <v>0.9443384636615535</v>
       </c>
       <c r="BX7">
+        <v>0.9665630449849949</v>
+      </c>
+      <c r="BY7">
+        <v>0.9942554544005514</v>
+      </c>
+      <c r="BZ7">
+        <v>0.9967958298904752</v>
+      </c>
+      <c r="CA7">
+        <v>0.9968032484467554</v>
+      </c>
+      <c r="CB7">
+        <v>0.9985971111421491</v>
+      </c>
+      <c r="CC7">
+        <v>1</v>
+      </c>
+      <c r="CD7">
+        <v>1</v>
+      </c>
+      <c r="CE7">
+        <v>1</v>
+      </c>
+      <c r="CF7">
+        <v>1</v>
+      </c>
+      <c r="CG7">
+        <v>1</v>
+      </c>
+      <c r="CH7">
+        <v>1</v>
+      </c>
+      <c r="CI7">
+        <v>1</v>
+      </c>
+      <c r="CJ7">
+        <v>1</v>
+      </c>
+      <c r="CK7">
+        <v>1</v>
+      </c>
+      <c r="CL7">
+        <v>1</v>
+      </c>
+      <c r="CM7">
+        <v>1</v>
+      </c>
+      <c r="CN7">
+        <v>1</v>
+      </c>
+      <c r="CO7">
+        <v>1</v>
+      </c>
+      <c r="CP7">
+        <v>1</v>
+      </c>
+      <c r="CQ7">
+        <v>1</v>
+      </c>
+      <c r="CR7">
+        <v>1</v>
+      </c>
+      <c r="CS7">
+        <v>1</v>
+      </c>
+      <c r="CT7">
+        <v>1</v>
+      </c>
+      <c r="CU7">
+        <v>1</v>
+      </c>
+      <c r="CV7">
+        <v>1</v>
+      </c>
+      <c r="CW7">
+        <v>1</v>
+      </c>
+      <c r="CX7">
+        <v>1</v>
+      </c>
+      <c r="CY7">
+        <v>1</v>
+      </c>
+      <c r="CZ7">
+        <v>1</v>
+      </c>
+      <c r="DA7">
+        <v>1</v>
+      </c>
+      <c r="DB7">
+        <v>1</v>
+      </c>
+      <c r="DC7">
+        <v>1</v>
+      </c>
+      <c r="DD7">
+        <v>1</v>
+      </c>
+      <c r="DE7">
+        <v>1</v>
+      </c>
+      <c r="DF7">
+        <v>1</v>
+      </c>
+      <c r="DG7">
+        <v>1</v>
+      </c>
+      <c r="DH7">
+        <v>1</v>
+      </c>
+      <c r="DI7">
+        <v>1</v>
+      </c>
+      <c r="DJ7">
+        <v>1</v>
+      </c>
+      <c r="DK7">
+        <v>1</v>
+      </c>
+      <c r="DL7">
+        <v>1</v>
+      </c>
+      <c r="DM7">
+        <v>1</v>
+      </c>
+      <c r="DN7">
+        <v>1</v>
+      </c>
+      <c r="DO7">
+        <v>1</v>
+      </c>
+      <c r="DP7">
+        <v>1</v>
+      </c>
+      <c r="DQ7">
+        <v>1</v>
+      </c>
+      <c r="DR7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:76">
+    <row r="8" spans="1:122">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4852,228 +7474,366 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1006044882567974</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2567295392722831</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3335720866100015</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4208104328890947</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.475312768335545</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6560233115644617</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6560233115644617</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6560233115644617</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6560233115644617</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6913673114544269</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7779427290481147</v>
+        <v>0.3713588143983169</v>
       </c>
       <c r="O8">
-        <v>0.8873244731186682</v>
+        <v>0.6744089809139596</v>
       </c>
       <c r="P8">
-        <v>0.8873244731186682</v>
+        <v>0.6751004884976887</v>
       </c>
       <c r="Q8">
-        <v>0.8873244731186682</v>
+        <v>0.6925973009883237</v>
       </c>
       <c r="R8">
-        <v>0.9036209788642694</v>
+        <v>0.6927767094632268</v>
       </c>
       <c r="S8">
-        <v>0.9036209788642694</v>
+        <v>0.696156480087744</v>
       </c>
       <c r="T8">
-        <v>0.9501402191190665</v>
+        <v>0.7166170686488188</v>
       </c>
       <c r="U8">
-        <v>0.9501402191190665</v>
+        <v>0.7188952989746189</v>
       </c>
       <c r="V8">
-        <v>0.9501402191190665</v>
+        <v>0.7325067283493253</v>
       </c>
       <c r="W8">
-        <v>0.9501402191190665</v>
+        <v>0.7369034632403648</v>
       </c>
       <c r="X8">
-        <v>0.9503492333306728</v>
+        <v>0.7392618486630141</v>
       </c>
       <c r="Y8">
-        <v>0.9503492333306728</v>
+        <v>0.7392707849040917</v>
       </c>
       <c r="Z8">
-        <v>0.9503492333306728</v>
+        <v>0.745980911955615</v>
       </c>
       <c r="AA8">
-        <v>0.9503492333306728</v>
+        <v>0.7517387576564049</v>
       </c>
       <c r="AB8">
-        <v>0.9503492333306728</v>
+        <v>0.7931288883141835</v>
       </c>
       <c r="AC8">
-        <v>0.9503492333306728</v>
+        <v>0.7951749682565036</v>
       </c>
       <c r="AD8">
-        <v>0.9503492333306728</v>
+        <v>0.8082922832598675</v>
       </c>
       <c r="AE8">
-        <v>0.9503492333306728</v>
+        <v>0.8354813212577215</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999998</v>
+        <v>0.8447793254506667</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999998</v>
+        <v>0.8548973026776381</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999998</v>
+        <v>0.8621190172864683</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999998</v>
+        <v>0.8919065629440087</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999998</v>
+        <v>0.9064426591653534</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999998</v>
+        <v>0.9091197789095239</v>
       </c>
       <c r="AL8">
-        <v>0.9999999999999998</v>
+        <v>0.9282495475804083</v>
       </c>
       <c r="AM8">
-        <v>0.9999999999999998</v>
+        <v>0.9699790665816825</v>
       </c>
       <c r="AN8">
-        <v>0.9999999999999998</v>
+        <v>0.9774242471214637</v>
       </c>
       <c r="AO8">
-        <v>0.9999999999999998</v>
+        <v>0.9806667965334174</v>
       </c>
       <c r="AP8">
-        <v>0.9999999999999998</v>
+        <v>0.9885022978215166</v>
       </c>
       <c r="AQ8">
-        <v>0.9999999999999998</v>
+        <v>0.9918820684460338</v>
       </c>
       <c r="AR8">
-        <v>0.9999999999999998</v>
+        <v>0.9946840032337048</v>
       </c>
       <c r="AS8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="BY8">
+        <v>1</v>
+      </c>
+      <c r="BZ8">
+        <v>1</v>
+      </c>
+      <c r="CA8">
+        <v>1</v>
+      </c>
+      <c r="CB8">
+        <v>1</v>
+      </c>
+      <c r="CC8">
+        <v>1</v>
+      </c>
+      <c r="CD8">
+        <v>1</v>
+      </c>
+      <c r="CE8">
+        <v>1</v>
+      </c>
+      <c r="CF8">
+        <v>1</v>
+      </c>
+      <c r="CG8">
+        <v>1</v>
+      </c>
+      <c r="CH8">
+        <v>1</v>
+      </c>
+      <c r="CI8">
+        <v>1</v>
+      </c>
+      <c r="CJ8">
+        <v>1</v>
+      </c>
+      <c r="CK8">
+        <v>1</v>
+      </c>
+      <c r="CL8">
+        <v>1</v>
+      </c>
+      <c r="CM8">
+        <v>1</v>
+      </c>
+      <c r="CN8">
+        <v>1</v>
+      </c>
+      <c r="CO8">
+        <v>1</v>
+      </c>
+      <c r="CP8">
+        <v>1</v>
+      </c>
+      <c r="CQ8">
+        <v>1</v>
+      </c>
+      <c r="CR8">
+        <v>1</v>
+      </c>
+      <c r="CS8">
+        <v>1</v>
+      </c>
+      <c r="CT8">
+        <v>1</v>
+      </c>
+      <c r="CU8">
+        <v>1</v>
+      </c>
+      <c r="CV8">
+        <v>1</v>
+      </c>
+      <c r="CW8">
+        <v>1</v>
+      </c>
+      <c r="CX8">
+        <v>1</v>
+      </c>
+      <c r="CY8">
+        <v>1</v>
+      </c>
+      <c r="CZ8">
+        <v>1</v>
+      </c>
+      <c r="DA8">
+        <v>1</v>
+      </c>
+      <c r="DB8">
+        <v>1</v>
+      </c>
+      <c r="DC8">
+        <v>1</v>
+      </c>
+      <c r="DD8">
+        <v>1</v>
+      </c>
+      <c r="DE8">
+        <v>1</v>
+      </c>
+      <c r="DF8">
+        <v>1</v>
+      </c>
+      <c r="DG8">
+        <v>1</v>
+      </c>
+      <c r="DH8">
+        <v>1</v>
+      </c>
+      <c r="DI8">
+        <v>1</v>
+      </c>
+      <c r="DJ8">
+        <v>1</v>
+      </c>
+      <c r="DK8">
+        <v>1</v>
+      </c>
+      <c r="DL8">
+        <v>1</v>
+      </c>
+      <c r="DM8">
+        <v>1</v>
+      </c>
+      <c r="DN8">
+        <v>1</v>
+      </c>
+      <c r="DO8">
+        <v>1</v>
+      </c>
+      <c r="DP8">
+        <v>1</v>
+      </c>
+      <c r="DQ8">
+        <v>1</v>
+      </c>
+      <c r="DR8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:76">
+    <row r="9" spans="1:122">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5085,225 +7845,363 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2389783172627683</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2474189687528868</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3960935055450316</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.4402258132779033</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.479288072806821</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6026041619431443</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6026041619431443</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6026041619431443</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6046535661159242</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6481543237627416</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7983335476357636</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8417777177481558</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.8417777177481558</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.8417777177481558</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.9519272734409161</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.9519272734409161</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9932090057805141</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.9932090057805141</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.9932090057805141</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.9932090057805141</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.9932090057805141</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.9932090057805141</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.9932090057805141</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.9932090057805141</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.9932090057805141</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.9932090057805141</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.9932090057805141</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.9944920364575729</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9">
-        <v>1</v>
+        <v>0.168145582346883</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0.192965258912939</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>0.3049687306506647</v>
       </c>
       <c r="BB9">
-        <v>1</v>
+        <v>0.351978008827658</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>0.3958352239838485</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>0.492073278529181</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>0.5112063370089264</v>
       </c>
       <c r="BF9">
-        <v>1</v>
+        <v>0.516119775557893</v>
       </c>
       <c r="BG9">
-        <v>1</v>
+        <v>0.5369659959524522</v>
       </c>
       <c r="BH9">
-        <v>1</v>
+        <v>0.5835826376905091</v>
       </c>
       <c r="BI9">
-        <v>1</v>
+        <v>0.6965215775568836</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0.7431030386679475</v>
       </c>
       <c r="BK9">
-        <v>1</v>
+        <v>0.762675138808056</v>
       </c>
       <c r="BL9">
-        <v>1</v>
+        <v>0.7729317050838551</v>
       </c>
       <c r="BM9">
-        <v>1</v>
+        <v>0.8609840892942878</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0.8645125136754505</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>0.9097495812296452</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>0.9118820819933959</v>
       </c>
       <c r="BQ9">
-        <v>1</v>
+        <v>0.9123982643132879</v>
       </c>
       <c r="BR9">
-        <v>1</v>
+        <v>0.9158784499520812</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0.9290230374247884</v>
       </c>
       <c r="BT9">
-        <v>1</v>
+        <v>0.9387904152873197</v>
       </c>
       <c r="BU9">
-        <v>1</v>
+        <v>0.9400400651271609</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>0.9421631685351656</v>
       </c>
       <c r="BW9">
-        <v>1</v>
+        <v>0.9516528496442179</v>
       </c>
       <c r="BX9">
+        <v>0.9527396624519086</v>
+      </c>
+      <c r="BY9">
+        <v>0.9527644179839605</v>
+      </c>
+      <c r="BZ9">
+        <v>0.9731341818521099</v>
+      </c>
+      <c r="CA9">
+        <v>0.9961305981926986</v>
+      </c>
+      <c r="CB9">
+        <v>0.9999152159319359</v>
+      </c>
+      <c r="CC9">
+        <v>0.9999636936512785</v>
+      </c>
+      <c r="CD9">
+        <v>1</v>
+      </c>
+      <c r="CE9">
+        <v>1</v>
+      </c>
+      <c r="CF9">
+        <v>1</v>
+      </c>
+      <c r="CG9">
+        <v>1</v>
+      </c>
+      <c r="CH9">
+        <v>1</v>
+      </c>
+      <c r="CI9">
+        <v>1</v>
+      </c>
+      <c r="CJ9">
+        <v>1</v>
+      </c>
+      <c r="CK9">
+        <v>1</v>
+      </c>
+      <c r="CL9">
+        <v>1</v>
+      </c>
+      <c r="CM9">
+        <v>1</v>
+      </c>
+      <c r="CN9">
+        <v>1</v>
+      </c>
+      <c r="CO9">
+        <v>1</v>
+      </c>
+      <c r="CP9">
+        <v>1</v>
+      </c>
+      <c r="CQ9">
+        <v>1</v>
+      </c>
+      <c r="CR9">
+        <v>1</v>
+      </c>
+      <c r="CS9">
+        <v>1</v>
+      </c>
+      <c r="CT9">
+        <v>1</v>
+      </c>
+      <c r="CU9">
+        <v>1</v>
+      </c>
+      <c r="CV9">
+        <v>1</v>
+      </c>
+      <c r="CW9">
+        <v>1</v>
+      </c>
+      <c r="CX9">
+        <v>1</v>
+      </c>
+      <c r="CY9">
+        <v>1</v>
+      </c>
+      <c r="CZ9">
+        <v>1</v>
+      </c>
+      <c r="DA9">
+        <v>1</v>
+      </c>
+      <c r="DB9">
+        <v>1</v>
+      </c>
+      <c r="DC9">
+        <v>1</v>
+      </c>
+      <c r="DD9">
+        <v>1</v>
+      </c>
+      <c r="DE9">
+        <v>1</v>
+      </c>
+      <c r="DF9">
+        <v>1</v>
+      </c>
+      <c r="DG9">
+        <v>1</v>
+      </c>
+      <c r="DH9">
+        <v>1</v>
+      </c>
+      <c r="DI9">
+        <v>1</v>
+      </c>
+      <c r="DJ9">
+        <v>1</v>
+      </c>
+      <c r="DK9">
+        <v>1</v>
+      </c>
+      <c r="DL9">
+        <v>1</v>
+      </c>
+      <c r="DM9">
+        <v>1</v>
+      </c>
+      <c r="DN9">
+        <v>1</v>
+      </c>
+      <c r="DO9">
+        <v>1</v>
+      </c>
+      <c r="DP9">
+        <v>1</v>
+      </c>
+      <c r="DQ9">
+        <v>1</v>
+      </c>
+      <c r="DR9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:76">
+    <row r="10" spans="1:122">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5315,94 +8213,94 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1502149256278751</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3661776761806662</v>
+        <v>0.1507864943233962</v>
       </c>
       <c r="G10">
-        <v>0.5392862431429648</v>
+        <v>0.171672957544252</v>
       </c>
       <c r="H10">
-        <v>0.6056826211112313</v>
+        <v>0.171672957544252</v>
       </c>
       <c r="I10">
-        <v>0.6292749424158162</v>
+        <v>0.1756649877180641</v>
       </c>
       <c r="J10">
-        <v>0.7522868581309079</v>
+        <v>0.1756649877180641</v>
       </c>
       <c r="K10">
-        <v>0.7522868581309079</v>
+        <v>0.1756649877180641</v>
       </c>
       <c r="L10">
-        <v>0.7522868581309079</v>
+        <v>0.1822549219413199</v>
       </c>
       <c r="M10">
-        <v>0.7522868581309079</v>
+        <v>0.2199492540016135</v>
       </c>
       <c r="N10">
-        <v>0.8193679946734481</v>
+        <v>0.2555555804641067</v>
       </c>
       <c r="O10">
-        <v>0.927228837038259</v>
+        <v>0.2887303296326253</v>
       </c>
       <c r="P10">
-        <v>0.9734936361005947</v>
+        <v>0.2887303296326253</v>
       </c>
       <c r="Q10">
-        <v>0.9734936361005947</v>
+        <v>0.2979796859789395</v>
       </c>
       <c r="R10">
-        <v>0.9734936361005947</v>
+        <v>0.301431475381715</v>
       </c>
       <c r="S10">
-        <v>0.997030556493065</v>
+        <v>0.4220553018192515</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0.4771932547433471</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0.5120991652221134</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0.5151601919966692</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0.6576991324332376</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0.8197107276752256</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0.8411504725598344</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.8480614829204298</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.8480614829204298</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.8480614829204298</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.8490517110301173</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.8543580380678507</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.8614505406739873</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.8728823309731153</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9267088467919787</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9848269661144409</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -5530,10 +8428,148 @@
       <c r="BX10">
         <v>1</v>
       </c>
+      <c r="BY10">
+        <v>1</v>
+      </c>
+      <c r="BZ10">
+        <v>1</v>
+      </c>
+      <c r="CA10">
+        <v>1</v>
+      </c>
+      <c r="CB10">
+        <v>1</v>
+      </c>
+      <c r="CC10">
+        <v>1</v>
+      </c>
+      <c r="CD10">
+        <v>1</v>
+      </c>
+      <c r="CE10">
+        <v>1</v>
+      </c>
+      <c r="CF10">
+        <v>1</v>
+      </c>
+      <c r="CG10">
+        <v>1</v>
+      </c>
+      <c r="CH10">
+        <v>1</v>
+      </c>
+      <c r="CI10">
+        <v>1</v>
+      </c>
+      <c r="CJ10">
+        <v>1</v>
+      </c>
+      <c r="CK10">
+        <v>1</v>
+      </c>
+      <c r="CL10">
+        <v>1</v>
+      </c>
+      <c r="CM10">
+        <v>1</v>
+      </c>
+      <c r="CN10">
+        <v>1</v>
+      </c>
+      <c r="CO10">
+        <v>1</v>
+      </c>
+      <c r="CP10">
+        <v>1</v>
+      </c>
+      <c r="CQ10">
+        <v>1</v>
+      </c>
+      <c r="CR10">
+        <v>1</v>
+      </c>
+      <c r="CS10">
+        <v>1</v>
+      </c>
+      <c r="CT10">
+        <v>1</v>
+      </c>
+      <c r="CU10">
+        <v>1</v>
+      </c>
+      <c r="CV10">
+        <v>1</v>
+      </c>
+      <c r="CW10">
+        <v>1</v>
+      </c>
+      <c r="CX10">
+        <v>1</v>
+      </c>
+      <c r="CY10">
+        <v>1</v>
+      </c>
+      <c r="CZ10">
+        <v>1</v>
+      </c>
+      <c r="DA10">
+        <v>1</v>
+      </c>
+      <c r="DB10">
+        <v>1</v>
+      </c>
+      <c r="DC10">
+        <v>1</v>
+      </c>
+      <c r="DD10">
+        <v>1</v>
+      </c>
+      <c r="DE10">
+        <v>1</v>
+      </c>
+      <c r="DF10">
+        <v>1</v>
+      </c>
+      <c r="DG10">
+        <v>1</v>
+      </c>
+      <c r="DH10">
+        <v>1</v>
+      </c>
+      <c r="DI10">
+        <v>1</v>
+      </c>
+      <c r="DJ10">
+        <v>1</v>
+      </c>
+      <c r="DK10">
+        <v>1</v>
+      </c>
+      <c r="DL10">
+        <v>1</v>
+      </c>
+      <c r="DM10">
+        <v>1</v>
+      </c>
+      <c r="DN10">
+        <v>1</v>
+      </c>
+      <c r="DO10">
+        <v>1</v>
+      </c>
+      <c r="DP10">
+        <v>1</v>
+      </c>
+      <c r="DQ10">
+        <v>1</v>
+      </c>
+      <c r="DR10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:76">
+    <row r="11" spans="1:122">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5545,220 +8581,358 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.445885879486343</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5432130991572635</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6434093565532527</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.6434093565532527</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7726520423573719</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7869554217178789</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7869554217178789</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7869554217178789</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7991031564482036</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9446598666214808</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9709605057821179</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9709605057821179</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9813700881678386</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.9813700881678386</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AW11">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AX11">
-        <v>0.9999999999999998</v>
+        <v>0.01307307042177202</v>
       </c>
       <c r="AY11">
-        <v>0.9999999999999998</v>
+        <v>0.3124896155358808</v>
       </c>
       <c r="AZ11">
-        <v>0.9999999999999998</v>
+        <v>0.3953957427231064</v>
       </c>
       <c r="BA11">
-        <v>0.9999999999999998</v>
+        <v>0.4800839990854659</v>
       </c>
       <c r="BB11">
-        <v>0.9999999999999998</v>
+        <v>0.5002469031258255</v>
       </c>
       <c r="BC11">
-        <v>0.9999999999999998</v>
+        <v>0.6029776156912751</v>
       </c>
       <c r="BD11">
-        <v>0.9999999999999998</v>
+        <v>0.6343127207354236</v>
       </c>
       <c r="BE11">
-        <v>0.9999999999999998</v>
+        <v>0.6344625316451273</v>
       </c>
       <c r="BF11">
-        <v>0.9999999999999998</v>
+        <v>0.6354463003709697</v>
       </c>
       <c r="BG11">
-        <v>0.9999999999999998</v>
+        <v>0.6654424069233585</v>
       </c>
       <c r="BH11">
-        <v>0.9999999999999998</v>
+        <v>0.7783067257980192</v>
       </c>
       <c r="BI11">
-        <v>0.9999999999999998</v>
+        <v>0.8170940391295162</v>
       </c>
       <c r="BJ11">
-        <v>0.9999999999999998</v>
+        <v>0.8316331137040818</v>
       </c>
       <c r="BK11">
-        <v>0.9999999999999998</v>
+        <v>0.8605495509383992</v>
       </c>
       <c r="BL11">
-        <v>0.9999999999999998</v>
+        <v>0.8829999803163341</v>
       </c>
       <c r="BM11">
-        <v>0.9999999999999998</v>
+        <v>0.9170225508049163</v>
       </c>
       <c r="BN11">
-        <v>0.9999999999999998</v>
+        <v>0.9302886551383777</v>
       </c>
       <c r="BO11">
-        <v>0.9999999999999998</v>
+        <v>0.9312420616537902</v>
       </c>
       <c r="BP11">
-        <v>0.9999999999999998</v>
+        <v>0.9312709716283059</v>
       </c>
       <c r="BQ11">
-        <v>0.9999999999999998</v>
+        <v>0.9318155625574223</v>
       </c>
       <c r="BR11">
-        <v>0.9999999999999998</v>
+        <v>0.9463153152365877</v>
       </c>
       <c r="BS11">
-        <v>0.9999999999999998</v>
+        <v>0.9471192728925241</v>
       </c>
       <c r="BT11">
-        <v>0.9999999999999998</v>
+        <v>0.9523468675932337</v>
       </c>
       <c r="BU11">
-        <v>0.9999999999999998</v>
+        <v>0.9523643610353305</v>
       </c>
       <c r="BV11">
-        <v>0.9999999999999998</v>
+        <v>0.9553799459052467</v>
       </c>
       <c r="BW11">
-        <v>0.9999999999999998</v>
+        <v>0.955845948720649</v>
       </c>
       <c r="BX11">
-        <v>0.9999999999999998</v>
+        <v>0.9573344616313739</v>
+      </c>
+      <c r="BY11">
+        <v>0.9794084300004879</v>
+      </c>
+      <c r="BZ11">
+        <v>0.9977240059910755</v>
+      </c>
+      <c r="CA11">
+        <v>0.999899151997098</v>
+      </c>
+      <c r="CB11">
+        <v>0.9999468655779604</v>
+      </c>
+      <c r="CC11">
+        <v>1</v>
+      </c>
+      <c r="CD11">
+        <v>1</v>
+      </c>
+      <c r="CE11">
+        <v>1</v>
+      </c>
+      <c r="CF11">
+        <v>1</v>
+      </c>
+      <c r="CG11">
+        <v>1</v>
+      </c>
+      <c r="CH11">
+        <v>1</v>
+      </c>
+      <c r="CI11">
+        <v>1</v>
+      </c>
+      <c r="CJ11">
+        <v>1</v>
+      </c>
+      <c r="CK11">
+        <v>1</v>
+      </c>
+      <c r="CL11">
+        <v>1</v>
+      </c>
+      <c r="CM11">
+        <v>1</v>
+      </c>
+      <c r="CN11">
+        <v>1</v>
+      </c>
+      <c r="CO11">
+        <v>1</v>
+      </c>
+      <c r="CP11">
+        <v>1</v>
+      </c>
+      <c r="CQ11">
+        <v>1</v>
+      </c>
+      <c r="CR11">
+        <v>1</v>
+      </c>
+      <c r="CS11">
+        <v>1</v>
+      </c>
+      <c r="CT11">
+        <v>1</v>
+      </c>
+      <c r="CU11">
+        <v>1</v>
+      </c>
+      <c r="CV11">
+        <v>1</v>
+      </c>
+      <c r="CW11">
+        <v>1</v>
+      </c>
+      <c r="CX11">
+        <v>1</v>
+      </c>
+      <c r="CY11">
+        <v>1</v>
+      </c>
+      <c r="CZ11">
+        <v>1</v>
+      </c>
+      <c r="DA11">
+        <v>1</v>
+      </c>
+      <c r="DB11">
+        <v>1</v>
+      </c>
+      <c r="DC11">
+        <v>1</v>
+      </c>
+      <c r="DD11">
+        <v>1</v>
+      </c>
+      <c r="DE11">
+        <v>1</v>
+      </c>
+      <c r="DF11">
+        <v>1</v>
+      </c>
+      <c r="DG11">
+        <v>1</v>
+      </c>
+      <c r="DH11">
+        <v>1</v>
+      </c>
+      <c r="DI11">
+        <v>1</v>
+      </c>
+      <c r="DJ11">
+        <v>1</v>
+      </c>
+      <c r="DK11">
+        <v>1</v>
+      </c>
+      <c r="DL11">
+        <v>1</v>
+      </c>
+      <c r="DM11">
+        <v>1</v>
+      </c>
+      <c r="DN11">
+        <v>1</v>
+      </c>
+      <c r="DO11">
+        <v>1</v>
+      </c>
+      <c r="DP11">
+        <v>1</v>
+      </c>
+      <c r="DQ11">
+        <v>1</v>
+      </c>
+      <c r="DR11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5776,66 +8950,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D2">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.5225125351687694</v>
+      </c>
+      <c r="G2">
         <v>6</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.6659761314655219</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -5844,30 +9018,30 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5885,30 +9059,30 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5926,39 +9100,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5134209312799219</v>
+        <v>0.504561022204033</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -5967,36 +9141,36 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6027701702286588</v>
+        <v>0.569751774140423</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -6008,39 +9182,39 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D7">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.508795987872199</v>
+      </c>
+      <c r="G7">
         <v>5</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.6397070012469692</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
       </c>
       <c r="H7">
         <v>52</v>
@@ -6049,39 +9223,39 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6560233115644617</v>
+        <v>0.6744089809139596</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>52</v>
@@ -6090,39 +9264,39 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6026041619431443</v>
+        <v>0.5112063370089264</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>52</v>
@@ -6131,39 +9305,39 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5392862431429648</v>
+        <v>0.5120991652221134</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H10">
         <v>52</v>
@@ -6172,39 +9346,39 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D11">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.5002469031258255</v>
+      </c>
+      <c r="G11">
         <v>5</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5432130991572635</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -6213,16 +9387,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6240,66 +9414,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7330239661004581</v>
+        <v>0.7121114543721424</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -6308,30 +9482,30 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6349,30 +9523,30 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6390,39 +9564,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7619653638280464</v>
+        <v>0.7187931576964796</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -6431,39 +9605,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7195081963862391</v>
+        <v>0.7269616120695852</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -6472,39 +9646,39 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.719249164673206</v>
+        <v>0.7626480180901909</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>52</v>
@@ -6513,39 +9687,39 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7779427290481147</v>
+        <v>0.7166170686488188</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>52</v>
@@ -6554,39 +9728,39 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7983335476357636</v>
+        <v>0.7431030386679475</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>52</v>
@@ -6595,39 +9769,39 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7522868581309079</v>
+        <v>0.8197107276752256</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>52</v>
@@ -6636,39 +9810,39 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7726520423573719</v>
+        <v>0.7783067257980192</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -6677,16 +9851,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6704,63 +9878,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8981619658209448</v>
+        <v>0.845072668843629</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -6772,30 +9946,30 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6813,30 +9987,30 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6854,39 +10028,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8230532985743091</v>
+        <v>0.8664754312512976</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -6895,39 +10069,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8200387640637031</v>
+        <v>0.8185918921648437</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>52</v>
@@ -6936,39 +10110,39 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8033393485519119</v>
+        <v>0.8112691358219754</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>52</v>
@@ -6977,39 +10151,39 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8873244731186682</v>
+        <v>0.8082922832598675</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>52</v>
@@ -7018,39 +10192,39 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8417777177481558</v>
+        <v>0.8609840892942878</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>52</v>
@@ -7059,39 +10233,39 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8193679946734481</v>
+        <v>0.8197107276752256</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>52</v>
@@ -7100,39 +10274,39 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9446598666214808</v>
+        <v>0.8170940391295162</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -7141,16 +10315,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7168,63 +10342,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9280786543092006</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -7236,30 +10410,30 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7277,30 +10451,30 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7318,39 +10492,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9586548344595256</v>
+        <v>0.9273181904991279</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>52</v>
@@ -7359,36 +10533,36 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9650047124746683</v>
+        <v>0.9373271379226766</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -7400,39 +10574,39 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9802442316689909</v>
+        <v>0.9069429905971882</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>52</v>
@@ -7441,39 +10615,39 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9036209788642694</v>
+        <v>0.9064426591653534</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H8">
         <v>52</v>
@@ -7482,39 +10656,39 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D9">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.9097495812296452</v>
+      </c>
+      <c r="G9">
         <v>18</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9519272734409161</v>
-      </c>
-      <c r="G9">
-        <v>16</v>
       </c>
       <c r="H9">
         <v>52</v>
@@ -7523,39 +10697,39 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.927228837038259</v>
+        <v>0.9267088467919787</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>52</v>
@@ -7564,39 +10738,39 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9446598666214808</v>
+        <v>0.9170225508049163</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -7605,16 +10779,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/52_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/52_455-55R22.xlsx
@@ -279,40 +279,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Al</t>
   </si>
   <si>
     <t>455-55R22.5</t>
@@ -322,9 +325,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -935,46 +935,46 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3635967039200855</v>
+        <v>0.2961819157383344</v>
       </c>
       <c r="G2">
-        <v>0.3023794275454365</v>
+        <v>0.2500741221649463</v>
       </c>
       <c r="H2">
-        <v>0.06704783463493612</v>
+        <v>0.07282643736419982</v>
       </c>
       <c r="I2">
-        <v>0.002617856003331714</v>
+        <v>0.02429889202711179</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01187042769578597</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01880532797012491</v>
+        <v>0.03649101588692126</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02158684034954857</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.02232716817145102</v>
       </c>
       <c r="O2">
-        <v>0.007803449548563829</v>
+        <v>0.02820459138027788</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.01241551731904142</v>
       </c>
       <c r="Q2">
-        <v>0.1359113661984662</v>
+        <v>0.1246932580739925</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1018380341790555</v>
+        <v>0.09902981382838894</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1282,100 +1282,100 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.280927468568618</v>
+        <v>0.4767316522027264</v>
       </c>
       <c r="AT3">
-        <v>0.02527335723360415</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.1362031040499329</v>
+        <v>0.2017729726904621</v>
       </c>
       <c r="AV3">
-        <v>0.03375451506464101</v>
+        <v>0.007133121695271405</v>
       </c>
       <c r="AW3">
-        <v>0.05627568581804687</v>
+        <v>0.0499206052818876</v>
       </c>
       <c r="AX3">
-        <v>0.03313105325420179</v>
+        <v>0.005948620131247876</v>
       </c>
       <c r="AY3">
-        <v>0.001169811618076724</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.01392807160991089</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>5.54746856600992E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0733314874408626</v>
+        <v>0.08232455266026473</v>
       </c>
       <c r="BC3">
-        <v>0.0308732648666852</v>
+        <v>0.001659096969655159</v>
       </c>
       <c r="BD3">
-        <v>0.06989126107979875</v>
+        <v>0.07578854125259832</v>
       </c>
       <c r="BE3">
-        <v>0.04677273033840833</v>
+        <v>0.03186614638800937</v>
       </c>
       <c r="BF3">
-        <v>0.04956996665922069</v>
+        <v>0.03718055497161045</v>
       </c>
       <c r="BG3">
-        <v>0.04561896663013068</v>
+        <v>0.02967413575626646</v>
       </c>
       <c r="BH3">
-        <v>0.01433332916770745</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.002216498883220949</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>6.766315077505738E-06</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.004200360620568632</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.02257428194176336</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.001206623942258751</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0188744699141277</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0002945517495724712</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.00295016034423638</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>3.15874283921251E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.002668717642585394</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>4.410013169601918E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.01142153570411348</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01503666353043505</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001772021764709986</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.002882924853093728</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.002709187148642421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:76">
@@ -1512,100 +1512,100 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.2684097885316018</v>
+        <v>0.3991948871328689</v>
       </c>
       <c r="AT4">
-        <v>0.000114181103979234</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.1443839530232052</v>
+        <v>0.1915252284654296</v>
       </c>
       <c r="AV4">
-        <v>0.0479328323970914</v>
+        <v>0.03002685019277494</v>
       </c>
       <c r="AW4">
-        <v>0.01912797948996432</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.02042303313969496</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.004613652506655045</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.03400453435346425</v>
+        <v>0.006705218141825424</v>
       </c>
       <c r="BA4">
-        <v>0.03361912788423153</v>
+        <v>0.006059891064723316</v>
       </c>
       <c r="BB4">
-        <v>0.07405091278539642</v>
+        <v>0.07375913239877423</v>
       </c>
       <c r="BC4">
-        <v>0.04550374929823389</v>
+        <v>0.0259595777898373</v>
       </c>
       <c r="BD4">
-        <v>0.06672263650029367</v>
+        <v>0.061488619335833</v>
       </c>
       <c r="BE4">
-        <v>0.07242533563898695</v>
+        <v>0.07103725554345088</v>
       </c>
       <c r="BF4">
-        <v>0.01130129389466826</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.1101736878831899</v>
+        <v>0.1342433399344823</v>
       </c>
       <c r="BH4">
-        <v>0.0003494905930891119</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.004412808162753427</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.001175969646834242</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0004250547324722265</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.01085871411255758</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.004621816352089124</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.009837909377843512</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0005428857122339952</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>4.545010505378775E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.002095687530047035</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.000390025670666349</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.001319718189831889</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0008019553470990021</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.004206870137512597</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.002750610920657762</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>8.569448398167464E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.003317636098622948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:76">
@@ -1622,25 +1622,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2169405108288327</v>
+        <v>0.2673237675721693</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1432644550902644</v>
+        <v>0.1635068757700472</v>
       </c>
       <c r="H5">
-        <v>0.0903818509884606</v>
+        <v>0.08899002584892109</v>
       </c>
       <c r="I5">
-        <v>0.0628341143723643</v>
+        <v>0.05017252451830218</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.006500209546215168</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1649,28 +1649,28 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.02465733627668013</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.07842683295464511</v>
+        <v>0.07214421615855071</v>
       </c>
       <c r="P5">
-        <v>0.138960053770584</v>
+        <v>0.1574415461103836</v>
       </c>
       <c r="Q5">
-        <v>0.06108793474626269</v>
+        <v>0.04771198371582865</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1356015358852165</v>
+        <v>0.1527090603057972</v>
       </c>
       <c r="T5">
-        <v>0.003618475835287874</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.008731043109357236</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.004747277012433282</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.004596079606229161</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>9.468465080963928E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.01021252242382682</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.009345082902530409</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3906422407221644</v>
+        <v>0.5473467145902667</v>
       </c>
       <c r="F6">
-        <v>0.05132783837073779</v>
+        <v>0.03356151949574101</v>
       </c>
       <c r="G6">
-        <v>0.1608000911357566</v>
+        <v>0.1993228970103313</v>
       </c>
       <c r="H6">
-        <v>0.03648098187134798</v>
+        <v>0.01108061385124958</v>
       </c>
       <c r="I6">
-        <v>0.01233885710241942</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.008052912283775466</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1879,22 +1879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.05986527490003742</v>
+        <v>0.04648878831314403</v>
       </c>
       <c r="O6">
-        <v>0.03178631795157166</v>
+        <v>0.003972018397563663</v>
       </c>
       <c r="P6">
-        <v>0.06874424972589242</v>
+        <v>0.05993320971561833</v>
       </c>
       <c r="Q6">
-        <v>0.02355470816679919</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.02733257114882071</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.09407866909534536</v>
+        <v>0.09829423862608534</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1909,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0106019760838879</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.004922616578908291</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0002722724031428245</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1927,16 +1927,16 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.01261269444787918</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.003839487923074789</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.00128954802543053</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001456692063008315</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2079,22 +2079,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0229941773209142</v>
+        <v>0.01988630219404958</v>
       </c>
       <c r="E7">
-        <v>0.3581101889972687</v>
+        <v>0.3671018626569033</v>
       </c>
       <c r="F7">
-        <v>0.2586026349287863</v>
+        <v>0.2640015333609585</v>
       </c>
       <c r="G7">
-        <v>0.07954216342623682</v>
+        <v>0.07847598458609102</v>
       </c>
       <c r="H7">
-        <v>0.0006396251302154804</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.08345055874849053</v>
+        <v>0.08252549468123181</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2106,10 +2106,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.06701893407400304</v>
+        <v>0.06550059711776517</v>
       </c>
       <c r="N7">
-        <v>0.109885949043076</v>
+        <v>0.1099153493505854</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2118,13 +2118,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.01391936797899296</v>
+        <v>0.01048384184610361</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.005836400352016371</v>
+        <v>0.002109034206311549</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2309,22 +2309,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1006044882567974</v>
+        <v>0.1048448752906949</v>
       </c>
       <c r="E8">
-        <v>0.1561250510154857</v>
+        <v>0.173952553035473</v>
       </c>
       <c r="F8">
-        <v>0.07684254733771836</v>
+        <v>0.07526785960439057</v>
       </c>
       <c r="G8">
-        <v>0.08723834627909323</v>
+        <v>0.08820774146874745</v>
       </c>
       <c r="H8">
-        <v>0.05450233544645027</v>
+        <v>0.04746050161988929</v>
       </c>
       <c r="I8">
-        <v>0.1807105432289167</v>
+        <v>0.2045546613114137</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2336,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.03534399988996514</v>
+        <v>0.023613695788356</v>
       </c>
       <c r="N8">
-        <v>0.08657541759368782</v>
+        <v>0.08738257940837917</v>
       </c>
       <c r="O8">
-        <v>0.1093817440705535</v>
+        <v>0.1157701205713836</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2351,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.01629650574560121</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.04651924025479718</v>
+        <v>0.0375237657062333</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0.0002090142116062177</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.049650766669327</v>
+        <v>0.04142164619503872</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -2542,22 +2542,22 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2389783172627683</v>
+        <v>0.2726485277725062</v>
       </c>
       <c r="F9">
-        <v>0.008440651490118498</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.1486745367921448</v>
+        <v>0.1618446675000005</v>
       </c>
       <c r="H9">
-        <v>0.04413230773287172</v>
+        <v>0.03357005395789912</v>
       </c>
       <c r="I9">
-        <v>0.03906225952891765</v>
+        <v>0.02734904183816238</v>
       </c>
       <c r="J9">
-        <v>0.1233160891363233</v>
+        <v>0.1307295372569499</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.00204940417277995</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.04350075764681732</v>
+        <v>0.03279513415802403</v>
       </c>
       <c r="O9">
-        <v>0.150179223873022</v>
+        <v>0.163690937237485</v>
       </c>
       <c r="P9">
-        <v>0.04344417011239219</v>
+        <v>0.0327257005504283</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2584,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.1101495556927603</v>
+        <v>0.1145740371842987</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.041281732339598</v>
+        <v>0.03007236254424571</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2623,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.001283030677058773</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.005507963542427147</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2772,22 +2772,22 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1502149256278751</v>
+        <v>0.1578716940438948</v>
       </c>
       <c r="F10">
-        <v>0.215962750552791</v>
+        <v>0.2331992954516563</v>
       </c>
       <c r="G10">
-        <v>0.1731085669622986</v>
+        <v>0.1841010497857937</v>
       </c>
       <c r="H10">
-        <v>0.0663963779682665</v>
+        <v>0.06184037808947521</v>
       </c>
       <c r="I10">
-        <v>0.02359232130458489</v>
+        <v>0.01279956308640503</v>
       </c>
       <c r="J10">
-        <v>0.1230119157150918</v>
+        <v>0.1267050738531638</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2799,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.06708113654254023</v>
+        <v>0.06262490930404155</v>
       </c>
       <c r="O10">
-        <v>0.1078608423648108</v>
+        <v>0.109346415744959</v>
       </c>
       <c r="P10">
-        <v>0.04626479906233576</v>
+        <v>0.03877553064750044</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2814,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.02353692039247039</v>
+        <v>0.01273608999311026</v>
       </c>
       <c r="T10">
-        <v>0.002969443506934922</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -3002,22 +3002,22 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.445885879486343</v>
+        <v>0.4904269425330146</v>
       </c>
       <c r="F11">
-        <v>0.09732721967092051</v>
+        <v>0.09685306906340792</v>
       </c>
       <c r="G11">
-        <v>0.1001962573959893</v>
+        <v>0.1000926336497065</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1292426858041192</v>
+        <v>0.1328903135154113</v>
       </c>
       <c r="J11">
-        <v>0.01430337936050701</v>
+        <v>0.003106970663227806</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.01214773473032471</v>
+        <v>0.0006729315623944694</v>
       </c>
       <c r="N11">
-        <v>0.1455567101732772</v>
+        <v>0.1513112409032063</v>
       </c>
       <c r="O11">
-        <v>0.02630063916063711</v>
+        <v>0.01665363742244363</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.0104095823857207</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01862991183216123</v>
+        <v>0.007992260687187325</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -3478,217 +3478,217 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3635967039200855</v>
+        <v>0.2961819157383344</v>
       </c>
       <c r="G2">
-        <v>0.6659761314655219</v>
+        <v>0.5462560379032807</v>
       </c>
       <c r="H2">
-        <v>0.7330239661004581</v>
+        <v>0.6190824752674805</v>
       </c>
       <c r="I2">
-        <v>0.7356418221037898</v>
+        <v>0.6433813672945923</v>
       </c>
       <c r="J2">
-        <v>0.7356418221037898</v>
+        <v>0.6552517949903782</v>
       </c>
       <c r="K2">
-        <v>0.7356418221037898</v>
+        <v>0.6552517949903782</v>
       </c>
       <c r="L2">
-        <v>0.7544471500739147</v>
+        <v>0.6917428108772995</v>
       </c>
       <c r="M2">
-        <v>0.7544471500739147</v>
+        <v>0.7133296512268481</v>
       </c>
       <c r="N2">
-        <v>0.7544471500739147</v>
+        <v>0.7356568193982991</v>
       </c>
       <c r="O2">
-        <v>0.7622505996224785</v>
+        <v>0.7638614107785769</v>
       </c>
       <c r="P2">
-        <v>0.7622505996224785</v>
+        <v>0.7762769280976184</v>
       </c>
       <c r="Q2">
-        <v>0.8981619658209448</v>
+        <v>0.9009701861716108</v>
       </c>
       <c r="R2">
-        <v>0.8981619658209448</v>
+        <v>0.9009701861716108</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:76">
@@ -3825,100 +3825,100 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.280927468568618</v>
+        <v>0.4767316522027264</v>
       </c>
       <c r="AT3">
-        <v>0.3062008258022221</v>
+        <v>0.4767316522027264</v>
       </c>
       <c r="AU3">
-        <v>0.442403929852155</v>
+        <v>0.6785046248931885</v>
       </c>
       <c r="AV3">
-        <v>0.476158444916796</v>
+        <v>0.6856377465884599</v>
       </c>
       <c r="AW3">
-        <v>0.5324341307348428</v>
+        <v>0.7355583518703475</v>
       </c>
       <c r="AX3">
-        <v>0.5655651839890445</v>
+        <v>0.7415069720015953</v>
       </c>
       <c r="AY3">
-        <v>0.5667349956071213</v>
+        <v>0.7415069720015953</v>
       </c>
       <c r="AZ3">
-        <v>0.5806630672170321</v>
+        <v>0.7415069720015953</v>
       </c>
       <c r="BA3">
-        <v>0.5807185419026922</v>
+        <v>0.7415069720015953</v>
       </c>
       <c r="BB3">
-        <v>0.6540500293435548</v>
+        <v>0.82383152466186</v>
       </c>
       <c r="BC3">
-        <v>0.68492329421024</v>
+        <v>0.8254906216315152</v>
       </c>
       <c r="BD3">
-        <v>0.7548145552900387</v>
+        <v>0.9012791628841135</v>
       </c>
       <c r="BE3">
-        <v>0.8015872856284471</v>
+        <v>0.9331453092721228</v>
       </c>
       <c r="BF3">
-        <v>0.8511572522876677</v>
+        <v>0.9703258642437332</v>
       </c>
       <c r="BG3">
-        <v>0.8967762189177984</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BH3">
-        <v>0.9111095480855058</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BI3">
-        <v>0.9133260469687268</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BJ3">
-        <v>0.9133328132838042</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BK3">
-        <v>0.9175331739043728</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BL3">
-        <v>0.9401074558461362</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BM3">
-        <v>0.941314079788395</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BN3">
-        <v>0.9601885497025227</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BO3">
-        <v>0.9604831014520951</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BP3">
-        <v>0.9634332617963315</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BQ3">
-        <v>0.9634648492247236</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BR3">
-        <v>0.966133566867309</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BS3">
-        <v>0.966177666999005</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BT3">
-        <v>0.9775992027031185</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BU3">
-        <v>0.9926358662335536</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BV3">
-        <v>0.9944078879982636</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BW3">
-        <v>0.9972908128513573</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BX3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:76">
@@ -4055,100 +4055,100 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.2684097885316018</v>
+        <v>0.3991948871328689</v>
       </c>
       <c r="AT4">
-        <v>0.2685239696355811</v>
+        <v>0.3991948871328689</v>
       </c>
       <c r="AU4">
-        <v>0.4129079226587863</v>
+        <v>0.5907201155982985</v>
       </c>
       <c r="AV4">
-        <v>0.4608407550558777</v>
+        <v>0.6207469657910735</v>
       </c>
       <c r="AW4">
-        <v>0.479968734545842</v>
+        <v>0.6207469657910735</v>
       </c>
       <c r="AX4">
-        <v>0.5003917676855369</v>
+        <v>0.6207469657910735</v>
       </c>
       <c r="AY4">
-        <v>0.505005420192192</v>
+        <v>0.6207469657910735</v>
       </c>
       <c r="AZ4">
-        <v>0.5390099545456563</v>
+        <v>0.6274521839328989</v>
       </c>
       <c r="BA4">
-        <v>0.5726290824298877</v>
+        <v>0.6335120749976222</v>
       </c>
       <c r="BB4">
-        <v>0.6466799952152842</v>
+        <v>0.7072712073963964</v>
       </c>
       <c r="BC4">
-        <v>0.6921837445135181</v>
+        <v>0.7332307851862336</v>
       </c>
       <c r="BD4">
-        <v>0.7589063810138117</v>
+        <v>0.7947194045220667</v>
       </c>
       <c r="BE4">
-        <v>0.8313317166527987</v>
+        <v>0.8657566600655175</v>
       </c>
       <c r="BF4">
-        <v>0.842633010547467</v>
+        <v>0.8657566600655175</v>
       </c>
       <c r="BG4">
-        <v>0.9528066984306569</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH4">
-        <v>0.953156189023746</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI4">
-        <v>0.9575689971864995</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ4">
-        <v>0.9587449668333337</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK4">
-        <v>0.9591700215658059</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL4">
-        <v>0.9700287356783635</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM4">
-        <v>0.9746505520304526</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN4">
-        <v>0.984488461408296</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO4">
-        <v>0.9850313471205301</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP4">
-        <v>0.9850318016215807</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ4">
-        <v>0.9871274891516277</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR4">
-        <v>0.9875175148222941</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS4">
-        <v>0.988837233012126</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT4">
-        <v>0.989639188359225</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU4">
-        <v>0.9938460584967377</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV4">
-        <v>0.9965966694173954</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW4">
-        <v>0.9966823639013771</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:76">
@@ -4165,91 +4165,91 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2169405108288327</v>
+        <v>0.2673237675721693</v>
       </c>
       <c r="F5">
-        <v>0.2169405108288327</v>
+        <v>0.2673237675721693</v>
       </c>
       <c r="G5">
-        <v>0.360204965919097</v>
+        <v>0.4308306433422165</v>
       </c>
       <c r="H5">
-        <v>0.4505868169075576</v>
+        <v>0.5198206691911376</v>
       </c>
       <c r="I5">
-        <v>0.5134209312799219</v>
+        <v>0.5699931937094398</v>
       </c>
       <c r="J5">
-        <v>0.5134209312799219</v>
+        <v>0.5699931937094398</v>
       </c>
       <c r="K5">
-        <v>0.5199211408261372</v>
+        <v>0.5699931937094398</v>
       </c>
       <c r="L5">
-        <v>0.5199211408261372</v>
+        <v>0.5699931937094398</v>
       </c>
       <c r="M5">
-        <v>0.5199211408261372</v>
+        <v>0.5699931937094398</v>
       </c>
       <c r="N5">
-        <v>0.5445784771028173</v>
+        <v>0.5699931937094398</v>
       </c>
       <c r="O5">
-        <v>0.6230053100574624</v>
+        <v>0.6421374098679905</v>
       </c>
       <c r="P5">
-        <v>0.7619653638280464</v>
+        <v>0.7995789559783741</v>
       </c>
       <c r="Q5">
-        <v>0.8230532985743091</v>
+        <v>0.8472909396942028</v>
       </c>
       <c r="R5">
-        <v>0.8230532985743091</v>
+        <v>0.8472909396942028</v>
       </c>
       <c r="S5">
-        <v>0.9586548344595256</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.9622733102948134</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.9710043534041707</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.9710043534041707</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9710043534041707</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.975751630416604</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.975751630416604</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.9803477100228332</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.9803477100228332</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.9803477100228332</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.9803477100228332</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9803477100228332</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9803477100228332</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9804423946736428</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9906549170974697</v>
+        <v>1</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -4395,97 +4395,97 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3906422407221644</v>
+        <v>0.5473467145902667</v>
       </c>
       <c r="F6">
-        <v>0.4419700790929021</v>
+        <v>0.5809082340860078</v>
       </c>
       <c r="G6">
-        <v>0.6027701702286588</v>
+        <v>0.7802311310963391</v>
       </c>
       <c r="H6">
-        <v>0.6392511521000067</v>
+        <v>0.7913117449475887</v>
       </c>
       <c r="I6">
-        <v>0.6515900092024262</v>
+        <v>0.7913117449475887</v>
       </c>
       <c r="J6">
-        <v>0.6596429214862016</v>
+        <v>0.7913117449475887</v>
       </c>
       <c r="K6">
-        <v>0.6596429214862016</v>
+        <v>0.7913117449475887</v>
       </c>
       <c r="L6">
-        <v>0.6596429214862016</v>
+        <v>0.7913117449475887</v>
       </c>
       <c r="M6">
-        <v>0.6596429214862016</v>
+        <v>0.7913117449475887</v>
       </c>
       <c r="N6">
-        <v>0.7195081963862391</v>
+        <v>0.8378005332607328</v>
       </c>
       <c r="O6">
-        <v>0.7512945143378107</v>
+        <v>0.8417725516582965</v>
       </c>
       <c r="P6">
-        <v>0.8200387640637031</v>
+        <v>0.9017057613739148</v>
       </c>
       <c r="Q6">
-        <v>0.8435934722305023</v>
+        <v>0.9017057613739148</v>
       </c>
       <c r="R6">
-        <v>0.870926043379323</v>
+        <v>0.9017057613739148</v>
       </c>
       <c r="S6">
-        <v>0.9650047124746683</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.9650047124746683</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.9650047124746683</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.9650047124746683</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.9650047124746683</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.9756066885585563</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.9805293051374645</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.9808015775406074</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9808015775406074</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9808015775406074</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9808015775406074</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9934142719884865</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9972537599115613</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9972537599115613</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9985433079369919</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9985433079369919</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9985433079369919</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -4622,49 +4622,49 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0229941773209142</v>
+        <v>0.01988630219404958</v>
       </c>
       <c r="E7">
-        <v>0.3811043663181828</v>
+        <v>0.3869881648509529</v>
       </c>
       <c r="F7">
-        <v>0.6397070012469692</v>
+        <v>0.6509896982119114</v>
       </c>
       <c r="G7">
-        <v>0.719249164673206</v>
+        <v>0.7294656827980025</v>
       </c>
       <c r="H7">
-        <v>0.7198887898034214</v>
+        <v>0.7294656827980025</v>
       </c>
       <c r="I7">
-        <v>0.8033393485519119</v>
+        <v>0.8119911774792343</v>
       </c>
       <c r="J7">
-        <v>0.8033393485519119</v>
+        <v>0.8119911774792343</v>
       </c>
       <c r="K7">
-        <v>0.8033393485519119</v>
+        <v>0.8119911774792343</v>
       </c>
       <c r="L7">
-        <v>0.8033393485519119</v>
+        <v>0.8119911774792343</v>
       </c>
       <c r="M7">
-        <v>0.870358282625915</v>
+        <v>0.8774917745969995</v>
       </c>
       <c r="N7">
-        <v>0.9802442316689909</v>
+        <v>0.9874071239475849</v>
       </c>
       <c r="O7">
-        <v>0.9802442316689909</v>
+        <v>0.9874071239475849</v>
       </c>
       <c r="P7">
-        <v>0.9802442316689909</v>
+        <v>0.9874071239475849</v>
       </c>
       <c r="Q7">
-        <v>0.9941635996479838</v>
+        <v>0.9978909657936885</v>
       </c>
       <c r="R7">
-        <v>0.9941635996479838</v>
+        <v>0.9978909657936885</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -4852,88 +4852,88 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1006044882567974</v>
+        <v>0.1048448752906949</v>
       </c>
       <c r="E8">
-        <v>0.2567295392722831</v>
+        <v>0.2787974283261679</v>
       </c>
       <c r="F8">
-        <v>0.3335720866100015</v>
+        <v>0.3540652879305585</v>
       </c>
       <c r="G8">
-        <v>0.4208104328890947</v>
+        <v>0.442273029399306</v>
       </c>
       <c r="H8">
-        <v>0.475312768335545</v>
+        <v>0.4897335310191953</v>
       </c>
       <c r="I8">
-        <v>0.6560233115644617</v>
+        <v>0.694288192330609</v>
       </c>
       <c r="J8">
-        <v>0.6560233115644617</v>
+        <v>0.694288192330609</v>
       </c>
       <c r="K8">
-        <v>0.6560233115644617</v>
+        <v>0.694288192330609</v>
       </c>
       <c r="L8">
-        <v>0.6560233115644617</v>
+        <v>0.694288192330609</v>
       </c>
       <c r="M8">
-        <v>0.6913673114544269</v>
+        <v>0.717901888118965</v>
       </c>
       <c r="N8">
-        <v>0.7779427290481147</v>
+        <v>0.8052844675273442</v>
       </c>
       <c r="O8">
-        <v>0.8873244731186682</v>
+        <v>0.9210545880987278</v>
       </c>
       <c r="P8">
-        <v>0.8873244731186682</v>
+        <v>0.9210545880987278</v>
       </c>
       <c r="Q8">
-        <v>0.8873244731186682</v>
+        <v>0.9210545880987278</v>
       </c>
       <c r="R8">
-        <v>0.9036209788642694</v>
+        <v>0.9210545880987278</v>
       </c>
       <c r="S8">
-        <v>0.9036209788642694</v>
+        <v>0.9210545880987278</v>
       </c>
       <c r="T8">
-        <v>0.9501402191190665</v>
+        <v>0.958578353804961</v>
       </c>
       <c r="U8">
-        <v>0.9501402191190665</v>
+        <v>0.958578353804961</v>
       </c>
       <c r="V8">
-        <v>0.9501402191190665</v>
+        <v>0.958578353804961</v>
       </c>
       <c r="W8">
-        <v>0.9501402191190665</v>
+        <v>0.958578353804961</v>
       </c>
       <c r="X8">
-        <v>0.9503492333306728</v>
+        <v>0.958578353804961</v>
       </c>
       <c r="Y8">
-        <v>0.9503492333306728</v>
+        <v>0.958578353804961</v>
       </c>
       <c r="Z8">
-        <v>0.9503492333306728</v>
+        <v>0.958578353804961</v>
       </c>
       <c r="AA8">
-        <v>0.9503492333306728</v>
+        <v>0.958578353804961</v>
       </c>
       <c r="AB8">
-        <v>0.9503492333306728</v>
+        <v>0.958578353804961</v>
       </c>
       <c r="AC8">
-        <v>0.9503492333306728</v>
+        <v>0.958578353804961</v>
       </c>
       <c r="AD8">
-        <v>0.9503492333306728</v>
+        <v>0.958578353804961</v>
       </c>
       <c r="AE8">
-        <v>0.9503492333306728</v>
+        <v>0.958578353804961</v>
       </c>
       <c r="AF8">
         <v>0.9999999999999998</v>
@@ -5085,88 +5085,88 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2389783172627683</v>
+        <v>0.2726485277725062</v>
       </c>
       <c r="F9">
-        <v>0.2474189687528868</v>
+        <v>0.2726485277725062</v>
       </c>
       <c r="G9">
-        <v>0.3960935055450316</v>
+        <v>0.4344931952725067</v>
       </c>
       <c r="H9">
-        <v>0.4402258132779033</v>
+        <v>0.4680632492304059</v>
       </c>
       <c r="I9">
-        <v>0.479288072806821</v>
+        <v>0.4954122910685683</v>
       </c>
       <c r="J9">
-        <v>0.6026041619431443</v>
+        <v>0.6261418283255182</v>
       </c>
       <c r="K9">
-        <v>0.6026041619431443</v>
+        <v>0.6261418283255182</v>
       </c>
       <c r="L9">
-        <v>0.6026041619431443</v>
+        <v>0.6261418283255182</v>
       </c>
       <c r="M9">
-        <v>0.6046535661159242</v>
+        <v>0.6261418283255182</v>
       </c>
       <c r="N9">
-        <v>0.6481543237627416</v>
+        <v>0.6589369624835423</v>
       </c>
       <c r="O9">
-        <v>0.7983335476357636</v>
+        <v>0.8226278997210272</v>
       </c>
       <c r="P9">
-        <v>0.8417777177481558</v>
+        <v>0.8553536002714556</v>
       </c>
       <c r="Q9">
-        <v>0.8417777177481558</v>
+        <v>0.8553536002714556</v>
       </c>
       <c r="R9">
-        <v>0.8417777177481558</v>
+        <v>0.8553536002714556</v>
       </c>
       <c r="S9">
-        <v>0.9519272734409161</v>
+        <v>0.9699276374557543</v>
       </c>
       <c r="T9">
-        <v>0.9519272734409161</v>
+        <v>0.9699276374557543</v>
       </c>
       <c r="U9">
-        <v>0.9932090057805141</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.9932090057805141</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.9932090057805141</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.9932090057805141</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.9932090057805141</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.9932090057805141</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.9932090057805141</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.9932090057805141</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.9932090057805141</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9932090057805141</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9932090057805141</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9944920364575729</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <v>1</v>
@@ -5315,49 +5315,49 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1502149256278751</v>
+        <v>0.1578716940438948</v>
       </c>
       <c r="F10">
-        <v>0.3661776761806662</v>
+        <v>0.3910709894955511</v>
       </c>
       <c r="G10">
-        <v>0.5392862431429648</v>
+        <v>0.5751720392813449</v>
       </c>
       <c r="H10">
-        <v>0.6056826211112313</v>
+        <v>0.63701241737082</v>
       </c>
       <c r="I10">
-        <v>0.6292749424158162</v>
+        <v>0.6498119804572251</v>
       </c>
       <c r="J10">
-        <v>0.7522868581309079</v>
+        <v>0.7765170543103889</v>
       </c>
       <c r="K10">
-        <v>0.7522868581309079</v>
+        <v>0.7765170543103889</v>
       </c>
       <c r="L10">
-        <v>0.7522868581309079</v>
+        <v>0.7765170543103889</v>
       </c>
       <c r="M10">
-        <v>0.7522868581309079</v>
+        <v>0.7765170543103889</v>
       </c>
       <c r="N10">
-        <v>0.8193679946734481</v>
+        <v>0.8391419636144304</v>
       </c>
       <c r="O10">
-        <v>0.927228837038259</v>
+        <v>0.9484883793593895</v>
       </c>
       <c r="P10">
-        <v>0.9734936361005947</v>
+        <v>0.9872639100068898</v>
       </c>
       <c r="Q10">
-        <v>0.9734936361005947</v>
+        <v>0.9872639100068898</v>
       </c>
       <c r="R10">
-        <v>0.9734936361005947</v>
+        <v>0.9872639100068898</v>
       </c>
       <c r="S10">
-        <v>0.997030556493065</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -5545,220 +5545,220 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.445885879486343</v>
+        <v>0.4904269425330146</v>
       </c>
       <c r="F11">
-        <v>0.5432130991572635</v>
+        <v>0.5872800115964225</v>
       </c>
       <c r="G11">
-        <v>0.6434093565532527</v>
+        <v>0.6873726452461291</v>
       </c>
       <c r="H11">
-        <v>0.6434093565532527</v>
+        <v>0.6873726452461291</v>
       </c>
       <c r="I11">
-        <v>0.7726520423573719</v>
+        <v>0.8202629587615403</v>
       </c>
       <c r="J11">
-        <v>0.7869554217178789</v>
+        <v>0.8233699294247682</v>
       </c>
       <c r="K11">
-        <v>0.7869554217178789</v>
+        <v>0.8233699294247682</v>
       </c>
       <c r="L11">
-        <v>0.7869554217178789</v>
+        <v>0.8233699294247682</v>
       </c>
       <c r="M11">
-        <v>0.7991031564482036</v>
+        <v>0.8240428609871626</v>
       </c>
       <c r="N11">
-        <v>0.9446598666214808</v>
+        <v>0.975354101890369</v>
       </c>
       <c r="O11">
-        <v>0.9709605057821179</v>
+        <v>0.9920077393128126</v>
       </c>
       <c r="P11">
-        <v>0.9709605057821179</v>
+        <v>0.9920077393128126</v>
       </c>
       <c r="Q11">
-        <v>0.9813700881678386</v>
+        <v>0.9920077393128126</v>
       </c>
       <c r="R11">
-        <v>0.9813700881678386</v>
+        <v>0.9920077393128126</v>
       </c>
       <c r="S11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5820,34 +5820,34 @@
         <v>76</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.5462560379032807</v>
+      </c>
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.6659761314655219</v>
-      </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2">
         <v>52</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>100</v>
@@ -5861,34 +5861,34 @@
         <v>77</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>42</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.6785046248931885</v>
       </c>
       <c r="F3">
-        <v>0.5324341307348428</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3">
         <v>52</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" t="s">
-        <v>99</v>
       </c>
       <c r="L3" t="s">
         <v>100</v>
@@ -5902,34 +5902,34 @@
         <v>78</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>42</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5907201155982985</v>
       </c>
       <c r="F4">
-        <v>0.5003917676855369</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4">
         <v>52</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
       </c>
       <c r="L4" t="s">
         <v>100</v>
@@ -5943,34 +5943,34 @@
         <v>79</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5198206691911376</v>
       </c>
       <c r="F5">
-        <v>0.5134209312799219</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5">
         <v>52</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" t="s">
-        <v>99</v>
       </c>
       <c r="L5" t="s">
         <v>100</v>
@@ -5984,34 +5984,34 @@
         <v>80</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5473467145902667</v>
       </c>
       <c r="F6">
-        <v>0.6027701702286588</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
         <v>52</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>99</v>
       </c>
       <c r="L6" t="s">
         <v>100</v>
@@ -6025,34 +6025,34 @@
         <v>81</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.6509896982119114</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.6397070012469692</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7">
         <v>52</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
       </c>
       <c r="L7" t="s">
         <v>100</v>
@@ -6066,34 +6066,34 @@
         <v>82</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.694288192330609</v>
+      </c>
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.6560233115644617</v>
-      </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8">
         <v>52</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
       </c>
       <c r="L8" t="s">
         <v>100</v>
@@ -6107,34 +6107,34 @@
         <v>83</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.6261418283255182</v>
+      </c>
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.6026041619431443</v>
-      </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>7</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9">
         <v>52</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
       </c>
       <c r="L9" t="s">
         <v>100</v>
@@ -6148,34 +6148,34 @@
         <v>84</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5751720392813449</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5392862431429648</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10">
         <v>52</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -6189,34 +6189,34 @@
         <v>85</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.5872800115964225</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5432130991572635</v>
-      </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11">
         <v>52</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
       </c>
       <c r="L11" t="s">
         <v>100</v>
@@ -6284,34 +6284,34 @@
         <v>76</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7133296512268481</v>
       </c>
       <c r="F2">
-        <v>0.7330239661004581</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2">
         <v>52</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>100</v>
@@ -6325,34 +6325,34 @@
         <v>77</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>42</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7355583518703475</v>
       </c>
       <c r="F3">
-        <v>0.7548145552900387</v>
+        <v>48</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3">
         <v>52</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" t="s">
-        <v>99</v>
       </c>
       <c r="L3" t="s">
         <v>100</v>
@@ -6366,34 +6366,34 @@
         <v>78</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>42</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7072712073963964</v>
       </c>
       <c r="F4">
-        <v>0.7589063810138117</v>
+        <v>53</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4">
         <v>52</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
       </c>
       <c r="L4" t="s">
         <v>100</v>
@@ -6407,34 +6407,34 @@
         <v>79</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0.7995789559783741</v>
+      </c>
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7619653638280464</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5">
         <v>52</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" t="s">
-        <v>99</v>
       </c>
       <c r="L5" t="s">
         <v>100</v>
@@ -6448,34 +6448,34 @@
         <v>80</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7802311310963391</v>
       </c>
       <c r="F6">
-        <v>0.7195081963862391</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
         <v>52</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>99</v>
       </c>
       <c r="L6" t="s">
         <v>100</v>
@@ -6489,34 +6489,34 @@
         <v>81</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.7294656827980025</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.719249164673206</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7">
         <v>52</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
       </c>
       <c r="L7" t="s">
         <v>100</v>
@@ -6530,34 +6530,34 @@
         <v>82</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.717901888118965</v>
       </c>
       <c r="F8">
-        <v>0.7779427290481147</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8">
         <v>52</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
       </c>
       <c r="L8" t="s">
         <v>100</v>
@@ -6571,34 +6571,34 @@
         <v>83</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
+        <v>0.8226278997210272</v>
+      </c>
+      <c r="F9">
         <v>14</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7983335476357636</v>
-      </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>12</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9">
         <v>52</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
       </c>
       <c r="L9" t="s">
         <v>100</v>
@@ -6612,34 +6612,34 @@
         <v>84</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10">
+        <v>0.7765170543103889</v>
+      </c>
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7522868581309079</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10">
         <v>52</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -6653,34 +6653,34 @@
         <v>85</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.8202629587615403</v>
+      </c>
+      <c r="F11">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7726520423573719</v>
-      </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11">
         <v>52</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
       </c>
       <c r="L11" t="s">
         <v>100</v>
@@ -6748,34 +6748,34 @@
         <v>76</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>0.9009701861716108</v>
+      </c>
+      <c r="F2">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8981619658209448</v>
-      </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2">
         <v>52</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>100</v>
@@ -6789,34 +6789,34 @@
         <v>77</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>42</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.82383152466186</v>
       </c>
       <c r="F3">
-        <v>0.8015872856284471</v>
+        <v>53</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3">
         <v>52</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" t="s">
-        <v>99</v>
       </c>
       <c r="L3" t="s">
         <v>100</v>
@@ -6830,34 +6830,34 @@
         <v>78</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>42</v>
       </c>
       <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>0.8657566600655175</v>
+      </c>
+      <c r="F4">
         <v>56</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8313317166527987</v>
-      </c>
       <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
         <v>14</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4">
         <v>52</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
       </c>
       <c r="L4" t="s">
         <v>100</v>
@@ -6871,34 +6871,34 @@
         <v>79</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>0.8472909396942028</v>
+      </c>
+      <c r="F5">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8230532985743091</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>14</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5">
         <v>52</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" t="s">
-        <v>99</v>
       </c>
       <c r="L5" t="s">
         <v>100</v>
@@ -6912,34 +6912,34 @@
         <v>80</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8378005332607328</v>
       </c>
       <c r="F6">
-        <v>0.8200387640637031</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
         <v>52</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>99</v>
       </c>
       <c r="L6" t="s">
         <v>100</v>
@@ -6953,34 +6953,34 @@
         <v>81</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>0.8119911774792343</v>
+      </c>
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8033393485519119</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7">
         <v>52</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
       </c>
       <c r="L7" t="s">
         <v>100</v>
@@ -6994,34 +6994,34 @@
         <v>82</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8052844675273442</v>
       </c>
       <c r="F8">
-        <v>0.8873244731186682</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8">
         <v>52</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
       </c>
       <c r="L8" t="s">
         <v>100</v>
@@ -7035,34 +7035,34 @@
         <v>83</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8226278997210272</v>
       </c>
       <c r="F9">
-        <v>0.8417777177481558</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9">
         <v>52</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
       </c>
       <c r="L9" t="s">
         <v>100</v>
@@ -7076,34 +7076,34 @@
         <v>84</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <v>0.8391419636144304</v>
+      </c>
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8193679946734481</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>11</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10">
         <v>52</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -7117,34 +7117,34 @@
         <v>85</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8202629587615403</v>
       </c>
       <c r="F11">
-        <v>0.9446598666214808</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11">
         <v>52</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
       </c>
       <c r="L11" t="s">
         <v>100</v>
@@ -7212,34 +7212,34 @@
         <v>76</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9009701861716108</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2">
         <v>52</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>100</v>
@@ -7253,34 +7253,34 @@
         <v>77</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>42</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9012791628841135</v>
       </c>
       <c r="F3">
-        <v>0.9111095480855058</v>
+        <v>55</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3">
         <v>52</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" t="s">
-        <v>99</v>
       </c>
       <c r="L3" t="s">
         <v>100</v>
@@ -7294,34 +7294,34 @@
         <v>78</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>42</v>
       </c>
       <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F4">
         <v>58</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9528066984306569</v>
-      </c>
       <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
         <v>16</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4">
         <v>52</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
       </c>
       <c r="L4" t="s">
         <v>100</v>
@@ -7335,34 +7335,34 @@
         <v>79</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9586548344595256</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>16</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5">
         <v>52</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" t="s">
-        <v>99</v>
       </c>
       <c r="L5" t="s">
         <v>100</v>
@@ -7376,34 +7376,34 @@
         <v>80</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9017057613739148</v>
       </c>
       <c r="F6">
-        <v>0.9650047124746683</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
         <v>52</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>99</v>
       </c>
       <c r="L6" t="s">
         <v>100</v>
@@ -7417,34 +7417,34 @@
         <v>81</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>0.9874071239475849</v>
+      </c>
+      <c r="F7">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9802442316689909</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7">
         <v>52</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
       </c>
       <c r="L7" t="s">
         <v>100</v>
@@ -7458,34 +7458,34 @@
         <v>82</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9210545880987278</v>
       </c>
       <c r="F8">
-        <v>0.9036209788642694</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8">
         <v>52</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
       </c>
       <c r="L8" t="s">
         <v>100</v>
@@ -7499,34 +7499,34 @@
         <v>83</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>0.9699276374557543</v>
+      </c>
+      <c r="F9">
         <v>18</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9519272734409161</v>
-      </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>16</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9">
         <v>52</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
       </c>
       <c r="L9" t="s">
         <v>100</v>
@@ -7540,34 +7540,34 @@
         <v>84</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>0.9484883793593895</v>
+      </c>
+      <c r="F10">
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.927228837038259</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10">
         <v>52</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -7581,34 +7581,34 @@
         <v>85</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>0.975354101890369</v>
+      </c>
+      <c r="F11">
         <v>13</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9446598666214808</v>
-      </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11">
         <v>52</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
       </c>
       <c r="L11" t="s">
         <v>100</v>
